--- a/data/сводный датасет.xlsx
+++ b/data/сводный датасет.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kosac\PycharmProjects\winland_R35\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62C0ECA4-B40C-4A00-A816-53D46D96199A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -17,9 +23,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>MD</t>
-  </si>
-  <si>
-    <t>FZI</t>
   </si>
   <si>
     <t>GK</t>
@@ -39,12 +42,15 @@
   <si>
     <t>NGK</t>
   </si>
+  <si>
+    <t>fzi</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,17 +109,25 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -151,9 +165,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -185,9 +199,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -219,9 +251,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -394,40 +444,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I235"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -438,25 +490,25 @@
         <v>0.6033599506320324</v>
       </c>
       <c r="D2">
-        <v>1.2127</v>
+        <v>1.2126999999999999</v>
       </c>
       <c r="E2">
-        <v>338.5269</v>
+        <v>338.52690000000001</v>
       </c>
       <c r="F2">
-        <v>2.6276</v>
+        <v>2.6276000000000002</v>
       </c>
       <c r="G2">
-        <v>16.504</v>
+        <v>16.504000000000001</v>
       </c>
       <c r="H2">
-        <v>181.1718</v>
+        <v>181.17179999999999</v>
       </c>
       <c r="I2">
-        <v>2.7322</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>2.7322000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -464,28 +516,28 @@
         <v>2625.59</v>
       </c>
       <c r="C3">
-        <v>0.5112085226234576</v>
+        <v>0.51120852262345762</v>
       </c>
       <c r="D3">
         <v>1.119</v>
       </c>
       <c r="E3">
-        <v>59.6454</v>
+        <v>59.645400000000002</v>
       </c>
       <c r="F3">
-        <v>2.659</v>
+        <v>2.6589999999999998</v>
       </c>
       <c r="G3">
-        <v>40.336</v>
+        <v>40.335999999999999</v>
       </c>
       <c r="H3">
-        <v>188.5622</v>
+        <v>188.56219999999999</v>
       </c>
       <c r="I3">
-        <v>2.4588</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>2.4588000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -493,28 +545,28 @@
         <v>2625.98</v>
       </c>
       <c r="C4">
-        <v>0.4825654496145378</v>
+        <v>0.48256544961453779</v>
       </c>
       <c r="D4">
-        <v>0.889</v>
+        <v>0.88900000000000001</v>
       </c>
       <c r="E4">
-        <v>37.7442</v>
+        <v>37.744199999999999</v>
       </c>
       <c r="F4">
-        <v>2.6178</v>
+        <v>2.6177999999999999</v>
       </c>
       <c r="G4">
-        <v>43.768</v>
+        <v>43.768000000000001</v>
       </c>
       <c r="H4">
         <v>200.7534</v>
       </c>
       <c r="I4">
-        <v>2.2048</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>2.2048000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -525,25 +577,25 @@
         <v>0.4892106903342518</v>
       </c>
       <c r="D5">
-        <v>0.8562</v>
+        <v>0.85619999999999996</v>
       </c>
       <c r="E5">
-        <v>27.7814</v>
+        <v>27.781400000000001</v>
       </c>
       <c r="F5">
-        <v>2.5836</v>
+        <v>2.5836000000000001</v>
       </c>
       <c r="G5">
-        <v>44.136</v>
+        <v>44.136000000000003</v>
       </c>
       <c r="H5">
-        <v>198.693</v>
+        <v>198.69300000000001</v>
       </c>
       <c r="I5">
-        <v>2.309</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>2.3090000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -551,28 +603,28 @@
         <v>2627.26</v>
       </c>
       <c r="C6">
-        <v>0.7494861426156497</v>
+        <v>0.74948614261564972</v>
       </c>
       <c r="D6">
-        <v>0.7831</v>
+        <v>0.78310000000000002</v>
       </c>
       <c r="E6">
-        <v>46.7827</v>
+        <v>46.782699999999998</v>
       </c>
       <c r="F6">
-        <v>2.6602</v>
+        <v>2.6602000000000001</v>
       </c>
       <c r="G6">
-        <v>44.252</v>
+        <v>44.252000000000002</v>
       </c>
       <c r="H6">
-        <v>192.7121</v>
+        <v>192.71209999999999</v>
       </c>
       <c r="I6">
-        <v>2.5308</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>2.5308000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -580,28 +632,28 @@
         <v>2627.74</v>
       </c>
       <c r="C7">
-        <v>0.4196440562600248</v>
+        <v>0.41964405626002482</v>
       </c>
       <c r="D7">
-        <v>1.374</v>
+        <v>1.3740000000000001</v>
       </c>
       <c r="E7">
-        <v>44.2317</v>
+        <v>44.231699999999996</v>
       </c>
       <c r="F7">
         <v>2.7096</v>
       </c>
       <c r="G7">
-        <v>43.464</v>
+        <v>43.463999999999999</v>
       </c>
       <c r="H7">
         <v>187.714</v>
       </c>
       <c r="I7">
-        <v>2.6742</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>2.6741999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -609,28 +661,28 @@
         <v>2628.59</v>
       </c>
       <c r="C8">
-        <v>0.3469251656566286</v>
+        <v>0.34692516565662862</v>
       </c>
       <c r="D8">
-        <v>0.914</v>
+        <v>0.91400000000000003</v>
       </c>
       <c r="E8">
-        <v>73.3813</v>
+        <v>73.381299999999996</v>
       </c>
       <c r="F8">
-        <v>2.6796</v>
+        <v>2.6796000000000002</v>
       </c>
       <c r="G8">
-        <v>40.168</v>
+        <v>40.167999999999999</v>
       </c>
       <c r="H8">
-        <v>177.163</v>
+        <v>177.16300000000001</v>
       </c>
       <c r="I8">
         <v>2.9554</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -638,28 +690,28 @@
         <v>2629.16</v>
       </c>
       <c r="C9">
-        <v>0.3338058732306043</v>
+        <v>0.33380587323060429</v>
       </c>
       <c r="D9">
-        <v>0.844</v>
+        <v>0.84399999999999997</v>
       </c>
       <c r="E9">
-        <v>48.3036</v>
+        <v>48.303600000000003</v>
       </c>
       <c r="F9">
-        <v>2.6882</v>
+        <v>2.6882000000000001</v>
       </c>
       <c r="G9">
-        <v>39.008</v>
+        <v>39.008000000000003</v>
       </c>
       <c r="H9">
         <v>176.76</v>
       </c>
       <c r="I9">
-        <v>3.0032</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>3.0032000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -667,10 +719,10 @@
         <v>2629.38</v>
       </c>
       <c r="C10">
-        <v>0.2659812036117278</v>
+        <v>0.26598120361172778</v>
       </c>
       <c r="D10">
-        <v>1.592</v>
+        <v>1.5920000000000001</v>
       </c>
       <c r="E10">
         <v>44.869</v>
@@ -679,16 +731,16 @@
         <v>2.7214</v>
       </c>
       <c r="G10">
-        <v>37.368</v>
+        <v>37.368000000000002</v>
       </c>
       <c r="H10">
-        <v>170.4464</v>
+        <v>170.44640000000001</v>
       </c>
       <c r="I10">
         <v>3.157</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -696,28 +748,28 @@
         <v>2629.76</v>
       </c>
       <c r="C11">
-        <v>1.357161737971171</v>
+        <v>1.3571617379711709</v>
       </c>
       <c r="D11">
-        <v>0.858</v>
+        <v>0.85799999999999998</v>
       </c>
       <c r="E11">
-        <v>76.0094</v>
+        <v>76.009399999999999</v>
       </c>
       <c r="F11">
-        <v>2.6902</v>
+        <v>2.6901999999999999</v>
       </c>
       <c r="G11">
-        <v>33.656</v>
+        <v>33.655999999999999</v>
       </c>
       <c r="H11">
-        <v>161.097</v>
+        <v>161.09700000000001</v>
       </c>
       <c r="I11">
-        <v>3.4262</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>3.4262000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -725,28 +777,28 @@
         <v>2631.08</v>
       </c>
       <c r="C12">
-        <v>0.7651460796486106</v>
+        <v>0.76514607964861059</v>
       </c>
       <c r="D12">
-        <v>1.3943</v>
+        <v>1.3943000000000001</v>
       </c>
       <c r="E12">
-        <v>93.399</v>
+        <v>93.399000000000001</v>
       </c>
       <c r="F12">
-        <v>2.6849</v>
+        <v>2.6848999999999998</v>
       </c>
       <c r="G12">
         <v>42.988</v>
       </c>
       <c r="H12">
-        <v>164.1685</v>
+        <v>164.16849999999999</v>
       </c>
       <c r="I12">
-        <v>3.5559</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>3.5558999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -754,19 +806,19 @@
         <v>2631.93</v>
       </c>
       <c r="C13">
-        <v>2.330583020285499</v>
+        <v>2.3305830202854989</v>
       </c>
       <c r="D13">
         <v>1.026</v>
       </c>
       <c r="E13">
-        <v>34.3068</v>
+        <v>34.306800000000003</v>
       </c>
       <c r="F13">
-        <v>2.5708</v>
+        <v>2.5708000000000002</v>
       </c>
       <c r="G13">
-        <v>76.232</v>
+        <v>76.231999999999999</v>
       </c>
       <c r="H13">
         <v>197.3134</v>
@@ -775,7 +827,7 @@
         <v>2.0848</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -783,28 +835,28 @@
         <v>2632.29</v>
       </c>
       <c r="C14">
-        <v>4.954749398290591</v>
+        <v>4.9547493982905912</v>
       </c>
       <c r="D14">
-        <v>0.6521</v>
+        <v>0.65210000000000001</v>
       </c>
       <c r="E14">
         <v>17.2559</v>
       </c>
       <c r="F14">
-        <v>2.6021</v>
+        <v>2.6021000000000001</v>
       </c>
       <c r="G14">
-        <v>87.044</v>
+        <v>87.043999999999997</v>
       </c>
       <c r="H14">
         <v>196.7996</v>
       </c>
       <c r="I14">
-        <v>2.0852</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>2.0851999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -812,28 +864,28 @@
         <v>2632.33</v>
       </c>
       <c r="C15">
-        <v>5.242973692141414</v>
+        <v>5.2429736921414136</v>
       </c>
       <c r="D15">
-        <v>0.7642</v>
+        <v>0.76419999999999999</v>
       </c>
       <c r="E15">
-        <v>16.1667</v>
+        <v>16.166699999999999</v>
       </c>
       <c r="F15">
         <v>2.6006</v>
       </c>
       <c r="G15">
-        <v>89.52800000000001</v>
+        <v>89.528000000000006</v>
       </c>
       <c r="H15">
-        <v>197.6406</v>
+        <v>197.64060000000001</v>
       </c>
       <c r="I15">
-        <v>2.0922</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>2.0922000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -841,13 +893,13 @@
         <v>2632.82</v>
       </c>
       <c r="C16">
-        <v>0.5985058296006053</v>
+        <v>0.59850582960060528</v>
       </c>
       <c r="D16">
-        <v>1.2837</v>
+        <v>1.2837000000000001</v>
       </c>
       <c r="E16">
-        <v>16.7792</v>
+        <v>16.779199999999999</v>
       </c>
       <c r="F16">
         <v>2.63</v>
@@ -856,13 +908,13 @@
         <v>88.66</v>
       </c>
       <c r="H16">
-        <v>193.9565</v>
+        <v>193.95650000000001</v>
       </c>
       <c r="I16">
-        <v>2.4963</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>2.4963000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -870,28 +922,28 @@
         <v>2633.41</v>
       </c>
       <c r="C17">
-        <v>0.9970544015636101</v>
+        <v>0.99705440156361014</v>
       </c>
       <c r="D17">
-        <v>0.9374</v>
+        <v>0.93740000000000001</v>
       </c>
       <c r="E17">
-        <v>48.1502</v>
+        <v>48.150199999999998</v>
       </c>
       <c r="F17">
-        <v>2.7034</v>
+        <v>2.7033999999999998</v>
       </c>
       <c r="G17">
-        <v>79.608</v>
+        <v>79.608000000000004</v>
       </c>
       <c r="H17">
         <v>166.9804</v>
       </c>
       <c r="I17">
-        <v>3.191</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>3.1909999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -899,28 +951,28 @@
         <v>2633.58</v>
       </c>
       <c r="C18">
-        <v>0.5936766501929255</v>
+        <v>0.59367665019292548</v>
       </c>
       <c r="D18">
-        <v>0.6722</v>
+        <v>0.67220000000000002</v>
       </c>
       <c r="E18">
-        <v>59.4229</v>
+        <v>59.422899999999998</v>
       </c>
       <c r="F18">
         <v>2.7094</v>
       </c>
       <c r="G18">
-        <v>78.416</v>
+        <v>78.415999999999997</v>
       </c>
       <c r="H18">
-        <v>165.1134</v>
+        <v>165.11340000000001</v>
       </c>
       <c r="I18">
-        <v>3.0916</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>3.0916000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -928,28 +980,28 @@
         <v>2634.11</v>
       </c>
       <c r="C19">
-        <v>0.5831580130264178</v>
+        <v>0.58315801302641779</v>
       </c>
       <c r="D19">
-        <v>0.8110000000000001</v>
+        <v>0.81100000000000005</v>
       </c>
       <c r="E19">
-        <v>37.5527</v>
+        <v>37.552700000000002</v>
       </c>
       <c r="F19">
-        <v>2.635</v>
+        <v>2.6349999999999998</v>
       </c>
       <c r="G19">
-        <v>83.59999999999989</v>
+        <v>83.599999999999895</v>
       </c>
       <c r="H19">
         <v>172.233</v>
       </c>
       <c r="I19">
-        <v>2.7268</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>2.7267999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -957,28 +1009,28 @@
         <v>2634.38</v>
       </c>
       <c r="C20">
-        <v>0.4266399125882906</v>
+        <v>0.42663991258829059</v>
       </c>
       <c r="D20">
         <v>0.109</v>
       </c>
       <c r="E20">
-        <v>25.9196</v>
+        <v>25.919599999999999</v>
       </c>
       <c r="F20">
-        <v>2.6322</v>
+        <v>2.6322000000000001</v>
       </c>
       <c r="G20">
-        <v>85.21599999999989</v>
+        <v>85.215999999999894</v>
       </c>
       <c r="H20">
-        <v>183.353</v>
+        <v>183.35300000000001</v>
       </c>
       <c r="I20">
-        <v>2.5388</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>2.5388000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -986,28 +1038,28 @@
         <v>2634.59</v>
       </c>
       <c r="C21">
-        <v>0.4789207504400713</v>
+        <v>0.47892075044007132</v>
       </c>
       <c r="D21">
-        <v>0.3003</v>
+        <v>0.30030000000000001</v>
       </c>
       <c r="E21">
         <v>19.212</v>
       </c>
       <c r="F21">
-        <v>2.6392</v>
+        <v>2.6392000000000002</v>
       </c>
       <c r="G21">
-        <v>85.104</v>
+        <v>85.103999999999999</v>
       </c>
       <c r="H21">
-        <v>186.9012</v>
+        <v>186.90119999999999</v>
       </c>
       <c r="I21">
-        <v>2.6134</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>2.6133999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1018,13 +1070,13 @@
         <v>0.712910337161618</v>
       </c>
       <c r="D22">
-        <v>0.7765</v>
+        <v>0.77649999999999997</v>
       </c>
       <c r="E22">
-        <v>38.9376</v>
+        <v>38.937600000000003</v>
       </c>
       <c r="F22">
-        <v>2.684</v>
+        <v>2.6840000000000002</v>
       </c>
       <c r="G22">
         <v>89.06</v>
@@ -1033,10 +1085,10 @@
         <v>174.5035</v>
       </c>
       <c r="I22">
-        <v>2.9757</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>2.9756999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1044,28 +1096,28 @@
         <v>2635.62</v>
       </c>
       <c r="C23">
-        <v>0.57038607571549</v>
+        <v>0.57038607571549005</v>
       </c>
       <c r="D23">
-        <v>0.6667</v>
+        <v>0.66669999999999996</v>
       </c>
       <c r="E23">
-        <v>42.9837</v>
+        <v>42.983699999999999</v>
       </c>
       <c r="F23">
-        <v>2.6378</v>
+        <v>2.6377999999999999</v>
       </c>
       <c r="G23">
         <v>98.012</v>
       </c>
       <c r="H23">
-        <v>177.9935</v>
+        <v>177.99350000000001</v>
       </c>
       <c r="I23">
-        <v>2.5998</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>2.5998000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1073,28 +1125,28 @@
         <v>2635.94</v>
       </c>
       <c r="C24">
-        <v>0.5448439524688583</v>
+        <v>0.54484395246885831</v>
       </c>
       <c r="D24">
-        <v>0.279</v>
+        <v>0.27900000000000003</v>
       </c>
       <c r="E24">
-        <v>24.8487</v>
+        <v>24.848700000000001</v>
       </c>
       <c r="F24">
-        <v>2.6234</v>
+        <v>2.6234000000000002</v>
       </c>
       <c r="G24">
         <v>106.672</v>
       </c>
       <c r="H24">
-        <v>187.6444</v>
+        <v>187.64439999999999</v>
       </c>
       <c r="I24">
-        <v>2.514</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>2.5139999999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1105,7 +1157,7 @@
         <v>0.6391306568232773</v>
       </c>
       <c r="D25">
-        <v>0.4746</v>
+        <v>0.47460000000000002</v>
       </c>
       <c r="E25">
         <v>14.7628</v>
@@ -1120,10 +1172,10 @@
         <v>192.7559</v>
       </c>
       <c r="I25">
-        <v>2.5933</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>2.5933000000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1131,16 +1183,16 @@
         <v>2636.72</v>
       </c>
       <c r="C26">
-        <v>0.8264070692909153</v>
+        <v>0.82640706929091534</v>
       </c>
       <c r="D26">
-        <v>0.884</v>
+        <v>0.88400000000000001</v>
       </c>
       <c r="E26">
         <v>15.7857</v>
       </c>
       <c r="F26">
-        <v>2.6742</v>
+        <v>2.6741999999999999</v>
       </c>
       <c r="G26">
         <v>115.56</v>
@@ -1149,10 +1201,10 @@
         <v>186.2784</v>
       </c>
       <c r="I26">
-        <v>2.6828</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>2.6827999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1160,16 +1212,16 @@
         <v>2637.05</v>
       </c>
       <c r="C27">
-        <v>0.6671989817180554</v>
+        <v>0.66719898171805536</v>
       </c>
       <c r="D27">
-        <v>0.6019</v>
+        <v>0.60189999999999999</v>
       </c>
       <c r="E27">
-        <v>24.6012</v>
+        <v>24.601199999999999</v>
       </c>
       <c r="F27">
-        <v>2.7163</v>
+        <v>2.7162999999999999</v>
       </c>
       <c r="G27">
         <v>115.032</v>
@@ -1178,10 +1230,10 @@
         <v>186.8869</v>
       </c>
       <c r="I27">
-        <v>2.9123</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>2.9123000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1192,13 +1244,13 @@
         <v>0.9719800138318837</v>
       </c>
       <c r="D28">
-        <v>0.6959</v>
+        <v>0.69589999999999996</v>
       </c>
       <c r="E28">
-        <v>27.8882</v>
+        <v>27.888200000000001</v>
       </c>
       <c r="F28">
-        <v>2.7268</v>
+        <v>2.7267999999999999</v>
       </c>
       <c r="G28">
         <v>115</v>
@@ -1207,10 +1259,10 @@
         <v>188.4984</v>
       </c>
       <c r="I28">
-        <v>2.8978</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>2.8978000000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1218,28 +1270,28 @@
         <v>2637.53</v>
       </c>
       <c r="C29">
-        <v>0.4709652449278237</v>
+        <v>0.47096524492782371</v>
       </c>
       <c r="D29">
-        <v>0.399</v>
+        <v>0.39900000000000002</v>
       </c>
       <c r="E29">
-        <v>22.3898</v>
+        <v>22.389800000000001</v>
       </c>
       <c r="F29">
-        <v>2.6704</v>
+        <v>2.6703999999999999</v>
       </c>
       <c r="G29">
-        <v>115.832</v>
+        <v>115.83199999999999</v>
       </c>
       <c r="H29">
-        <v>192.1642</v>
+        <v>192.16419999999999</v>
       </c>
       <c r="I29">
-        <v>2.4902</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>2.4902000000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1247,28 +1299,28 @@
         <v>2637.87</v>
       </c>
       <c r="C30">
-        <v>0.5041902415822829</v>
+        <v>0.50419024158228287</v>
       </c>
       <c r="D30">
-        <v>0.7159</v>
+        <v>0.71589999999999998</v>
       </c>
       <c r="E30">
         <v>16.0778</v>
       </c>
       <c r="F30">
-        <v>2.6518</v>
+        <v>2.6518000000000002</v>
       </c>
       <c r="G30">
-        <v>116.692</v>
+        <v>116.69199999999999</v>
       </c>
       <c r="H30">
         <v>185.5136</v>
       </c>
       <c r="I30">
-        <v>2.4748</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>2.4748000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1276,28 +1328,28 @@
         <v>2638.37</v>
       </c>
       <c r="C31">
-        <v>1.299343946793663</v>
+        <v>1.2993439467936629</v>
       </c>
       <c r="D31">
-        <v>0.7869</v>
+        <v>0.78690000000000004</v>
       </c>
       <c r="E31">
-        <v>17.1457</v>
+        <v>17.145700000000001</v>
       </c>
       <c r="F31">
-        <v>2.675</v>
+        <v>2.6749999999999998</v>
       </c>
       <c r="G31">
         <v>112.696</v>
       </c>
       <c r="H31">
-        <v>188.8688</v>
+        <v>188.86879999999999</v>
       </c>
       <c r="I31">
         <v>2.6972</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1305,13 +1357,13 @@
         <v>2638.86</v>
       </c>
       <c r="C32">
-        <v>0.6354067984640475</v>
+        <v>0.63540679846404746</v>
       </c>
       <c r="D32">
-        <v>0.5358000000000001</v>
+        <v>0.53580000000000005</v>
       </c>
       <c r="E32">
-        <v>19.2482</v>
+        <v>19.248200000000001</v>
       </c>
       <c r="F32">
         <v>2.6576</v>
@@ -1320,13 +1372,13 @@
         <v>110.508</v>
       </c>
       <c r="H32">
-        <v>183.3901</v>
+        <v>183.39009999999999</v>
       </c>
       <c r="I32">
-        <v>2.7339</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>2.7339000000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1334,10 +1386,10 @@
         <v>2639.3</v>
       </c>
       <c r="C33">
-        <v>0.4659533303844982</v>
+        <v>0.46595333038449821</v>
       </c>
       <c r="D33">
-        <v>0.5895</v>
+        <v>0.58950000000000002</v>
       </c>
       <c r="E33">
         <v>19.9053</v>
@@ -1349,13 +1401,13 @@
         <v>112.5</v>
       </c>
       <c r="H33">
-        <v>180.6185</v>
+        <v>180.61850000000001</v>
       </c>
       <c r="I33">
-        <v>2.5986</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>2.5985999999999998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1363,16 +1415,16 @@
         <v>2639.55</v>
       </c>
       <c r="C34">
-        <v>2.248039995554708</v>
+        <v>2.2480399955547079</v>
       </c>
       <c r="D34">
-        <v>0.617</v>
+        <v>0.61699999999999999</v>
       </c>
       <c r="E34">
         <v>25.2714</v>
       </c>
       <c r="F34">
-        <v>2.6596</v>
+        <v>2.6596000000000002</v>
       </c>
       <c r="G34">
         <v>114.08</v>
@@ -1381,10 +1433,10 @@
         <v>175.3082</v>
       </c>
       <c r="I34">
-        <v>2.6598</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>2.6598000000000002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1392,13 +1444,13 @@
         <v>2639.87</v>
       </c>
       <c r="C35">
-        <v>0.5912008290586377</v>
+        <v>0.59120082905863769</v>
       </c>
       <c r="D35">
-        <v>0.6245000000000001</v>
+        <v>0.62450000000000006</v>
       </c>
       <c r="E35">
-        <v>26.9566</v>
+        <v>26.956600000000002</v>
       </c>
       <c r="F35">
         <v>2.681</v>
@@ -1410,10 +1462,10 @@
         <v>177.3854</v>
       </c>
       <c r="I35">
-        <v>2.777</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>2.7770000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1424,16 +1476,16 @@
         <v>2.414595657841291</v>
       </c>
       <c r="D36">
-        <v>0.6639</v>
+        <v>0.66390000000000005</v>
       </c>
       <c r="E36">
-        <v>34.9573</v>
+        <v>34.957299999999996</v>
       </c>
       <c r="F36">
-        <v>2.6682</v>
+        <v>2.6682000000000001</v>
       </c>
       <c r="G36">
-        <v>137.824</v>
+        <v>137.82400000000001</v>
       </c>
       <c r="H36">
         <v>184.626</v>
@@ -1442,7 +1494,7 @@
         <v>2.7784</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1450,19 +1502,19 @@
         <v>2640.39</v>
       </c>
       <c r="C37">
-        <v>0.5106736571310339</v>
+        <v>0.51067365713103385</v>
       </c>
       <c r="D37">
-        <v>0.482</v>
+        <v>0.48199999999999998</v>
       </c>
       <c r="E37">
-        <v>27.8846</v>
+        <v>27.884599999999999</v>
       </c>
       <c r="F37">
         <v>2.641</v>
       </c>
       <c r="G37">
-        <v>150.688</v>
+        <v>150.68799999999999</v>
       </c>
       <c r="H37">
         <v>189.4332</v>
@@ -1471,7 +1523,7 @@
         <v>2.6008</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1479,16 +1531,16 @@
         <v>2640.5</v>
       </c>
       <c r="C38">
-        <v>0.4698613042506254</v>
+        <v>0.46986130425062539</v>
       </c>
       <c r="D38">
-        <v>0.5193</v>
+        <v>0.51929999999999998</v>
       </c>
       <c r="E38">
-        <v>22.2008</v>
+        <v>22.200800000000001</v>
       </c>
       <c r="F38">
-        <v>2.6281</v>
+        <v>2.6280999999999999</v>
       </c>
       <c r="G38">
         <v>157.94</v>
@@ -1497,10 +1549,10 @@
         <v>192.4521</v>
       </c>
       <c r="I38">
-        <v>2.4672</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>2.4672000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1508,16 +1560,16 @@
         <v>2640.74</v>
       </c>
       <c r="C39">
-        <v>0.4500186203415351</v>
+        <v>0.45001862034153511</v>
       </c>
       <c r="D39">
-        <v>0.6288</v>
+        <v>0.62880000000000003</v>
       </c>
       <c r="E39">
-        <v>10.0513</v>
+        <v>10.051299999999999</v>
       </c>
       <c r="F39">
-        <v>2.604</v>
+        <v>2.6040000000000001</v>
       </c>
       <c r="G39">
         <v>180.32</v>
@@ -1529,7 +1581,7 @@
         <v>2.1412</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1537,16 +1589,16 @@
         <v>2640.79</v>
       </c>
       <c r="C40">
-        <v>0.5912995475260897</v>
+        <v>0.59129954752608971</v>
       </c>
       <c r="D40">
-        <v>0.6288</v>
+        <v>0.62880000000000003</v>
       </c>
       <c r="E40">
-        <v>10.0513</v>
+        <v>10.051299999999999</v>
       </c>
       <c r="F40">
-        <v>2.604</v>
+        <v>2.6040000000000001</v>
       </c>
       <c r="G40">
         <v>180.32</v>
@@ -1558,7 +1610,7 @@
         <v>2.1412</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -1566,16 +1618,16 @@
         <v>2641.04</v>
       </c>
       <c r="C41">
-        <v>0.879378701995308</v>
+        <v>0.87937870199530799</v>
       </c>
       <c r="D41">
-        <v>0.6035</v>
+        <v>0.60350000000000004</v>
       </c>
       <c r="E41">
-        <v>9.13599999999999</v>
+        <v>9.1359999999999904</v>
       </c>
       <c r="F41">
-        <v>2.6199</v>
+        <v>2.6198999999999999</v>
       </c>
       <c r="G41">
         <v>195.44</v>
@@ -1584,10 +1636,10 @@
         <v>197.7654</v>
       </c>
       <c r="I41">
-        <v>2.2092</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>2.2092000000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -1595,16 +1647,16 @@
         <v>2749.98</v>
       </c>
       <c r="C42">
-        <v>3.77022208614931</v>
+        <v>3.7702220861493099</v>
       </c>
       <c r="D42">
-        <v>2.047</v>
+        <v>2.0470000000000002</v>
       </c>
       <c r="E42">
-        <v>422.3406</v>
+        <v>422.34059999999999</v>
       </c>
       <c r="F42">
-        <v>2.6998</v>
+        <v>2.6998000000000002</v>
       </c>
       <c r="G42">
         <v>8.16</v>
@@ -1616,7 +1668,7 @@
         <v>3.7256</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -1624,28 +1676,28 @@
         <v>2750.19</v>
       </c>
       <c r="C43">
-        <v>2.255806104761118</v>
+        <v>2.2558061047611182</v>
       </c>
       <c r="D43">
-        <v>1.1643</v>
+        <v>1.1642999999999999</v>
       </c>
       <c r="E43">
         <v>326.1474</v>
       </c>
       <c r="F43">
-        <v>2.7084</v>
+        <v>2.7084000000000001</v>
       </c>
       <c r="G43">
         <v>10.432</v>
       </c>
       <c r="H43">
-        <v>159.308</v>
+        <v>159.30799999999999</v>
       </c>
       <c r="I43">
-        <v>3.5374</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>3.5373999999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -1653,28 +1705,28 @@
         <v>2750.24</v>
       </c>
       <c r="C44">
-        <v>0.5222172165379987</v>
+        <v>0.52221721653799869</v>
       </c>
       <c r="D44">
-        <v>1.1161</v>
+        <v>1.1161000000000001</v>
       </c>
       <c r="E44">
         <v>309.9006</v>
       </c>
       <c r="F44">
-        <v>2.707</v>
+        <v>2.7069999999999999</v>
       </c>
       <c r="G44">
         <v>11.116</v>
       </c>
       <c r="H44">
-        <v>159.3685</v>
+        <v>159.36850000000001</v>
       </c>
       <c r="I44">
-        <v>3.5373</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>3.5373000000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -1682,13 +1734,13 @@
         <v>2752.22</v>
       </c>
       <c r="C45">
-        <v>3.606683018360297</v>
+        <v>3.6066830183602971</v>
       </c>
       <c r="D45">
-        <v>1.0073</v>
+        <v>1.0073000000000001</v>
       </c>
       <c r="E45">
-        <v>3444.3427</v>
+        <v>3444.3427000000001</v>
       </c>
       <c r="F45">
         <v>2.7439</v>
@@ -1697,13 +1749,13 @@
         <v>15.664</v>
       </c>
       <c r="H45">
-        <v>145.938</v>
+        <v>145.93799999999999</v>
       </c>
       <c r="I45">
-        <v>3.9986</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>3.9986000000000002</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -1711,13 +1763,13 @@
         <v>2752.71</v>
       </c>
       <c r="C46">
-        <v>6.239849481713782</v>
+        <v>6.2398494817137822</v>
       </c>
       <c r="D46">
         <v>1.3855</v>
       </c>
       <c r="E46">
-        <v>3119.6302</v>
+        <v>3119.6302000000001</v>
       </c>
       <c r="F46">
         <v>2.6488</v>
@@ -1726,13 +1778,13 @@
         <v>13.586</v>
       </c>
       <c r="H46">
-        <v>152.6204</v>
+        <v>152.62039999999999</v>
       </c>
       <c r="I46">
-        <v>4.3014</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>4.3014000000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -1740,28 +1792,28 @@
         <v>2753.81</v>
       </c>
       <c r="C47">
-        <v>6.409784848557105</v>
+        <v>6.4097848485571047</v>
       </c>
       <c r="D47">
-        <v>1.676</v>
+        <v>1.6759999999999999</v>
       </c>
       <c r="E47">
         <v>2127.0825</v>
       </c>
       <c r="F47">
-        <v>2.7226</v>
+        <v>2.7225999999999999</v>
       </c>
       <c r="G47">
         <v>12.616</v>
       </c>
       <c r="H47">
-        <v>155.7788</v>
+        <v>155.77879999999999</v>
       </c>
       <c r="I47">
-        <v>4.271</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>4.2709999999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -1769,10 +1821,10 @@
         <v>2757.76</v>
       </c>
       <c r="C48">
-        <v>12.4972</v>
+        <v>12.497199999999999</v>
       </c>
       <c r="D48">
-        <v>2.0654</v>
+        <v>2.0653999999999999</v>
       </c>
       <c r="E48">
         <v>310.709</v>
@@ -1781,16 +1833,16 @@
         <v>2.3386</v>
       </c>
       <c r="G48">
-        <v>15.312</v>
+        <v>15.311999999999999</v>
       </c>
       <c r="H48">
         <v>165.4512</v>
       </c>
       <c r="I48">
-        <v>3.083</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>3.0830000000000002</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -1798,16 +1850,16 @@
         <v>2764.56</v>
       </c>
       <c r="C49">
-        <v>1.654859378607055</v>
+        <v>1.6548593786070549</v>
       </c>
       <c r="D49">
         <v>1.0766</v>
       </c>
       <c r="E49">
-        <v>167.2503</v>
+        <v>167.25030000000001</v>
       </c>
       <c r="F49">
-        <v>2.7238</v>
+        <v>2.7238000000000002</v>
       </c>
       <c r="G49">
         <v>13.084</v>
@@ -1819,7 +1871,7 @@
         <v>3.2982</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -1830,25 +1882,25 @@
         <v>3.159534565468793</v>
       </c>
       <c r="D50">
-        <v>1.6378</v>
+        <v>1.6377999999999999</v>
       </c>
       <c r="E50">
-        <v>275.3041</v>
+        <v>275.30410000000001</v>
       </c>
       <c r="F50">
-        <v>2.7572</v>
+        <v>2.7572000000000001</v>
       </c>
       <c r="G50">
         <v>12.084</v>
       </c>
       <c r="H50">
-        <v>163.938</v>
+        <v>163.93799999999999</v>
       </c>
       <c r="I50">
         <v>3.9358</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -1856,16 +1908,16 @@
         <v>2765.42</v>
       </c>
       <c r="C51">
-        <v>5.434722304589259</v>
+        <v>5.4347223045892594</v>
       </c>
       <c r="D51">
-        <v>2.1667</v>
+        <v>2.1667000000000001</v>
       </c>
       <c r="E51">
-        <v>333.8566</v>
+        <v>333.85660000000001</v>
       </c>
       <c r="F51">
-        <v>2.7372</v>
+        <v>2.7372000000000001</v>
       </c>
       <c r="G51">
         <v>11.83</v>
@@ -1874,10 +1926,10 @@
         <v>158.303</v>
       </c>
       <c r="I51">
-        <v>3.9551</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>3.9550999999999998</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -1885,13 +1937,13 @@
         <v>2766.06</v>
       </c>
       <c r="C52">
-        <v>0.9285700540483368</v>
+        <v>0.92857005404833681</v>
       </c>
       <c r="D52">
-        <v>1.4302</v>
+        <v>1.4301999999999999</v>
       </c>
       <c r="E52">
-        <v>242.5267</v>
+        <v>242.52670000000001</v>
       </c>
       <c r="F52">
         <v>2.7277</v>
@@ -1906,7 +1958,7 @@
         <v>3.3992</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -1917,25 +1969,25 @@
         <v>2.194719313890845</v>
       </c>
       <c r="D53">
-        <v>1.1786</v>
+        <v>1.1786000000000001</v>
       </c>
       <c r="E53">
-        <v>328.9235</v>
+        <v>328.92349999999999</v>
       </c>
       <c r="F53">
-        <v>2.735</v>
+        <v>2.7349999999999999</v>
       </c>
       <c r="G53">
-        <v>10.576</v>
+        <v>10.576000000000001</v>
       </c>
       <c r="H53">
-        <v>158.4806</v>
+        <v>158.48060000000001</v>
       </c>
       <c r="I53">
         <v>3.819</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -1943,28 +1995,28 @@
         <v>2767.73</v>
       </c>
       <c r="C54">
-        <v>1.428559703927699</v>
+        <v>1.4285597039276989</v>
       </c>
       <c r="D54">
         <v>1.504</v>
       </c>
       <c r="E54">
-        <v>593.3318</v>
+        <v>593.33180000000004</v>
       </c>
       <c r="F54">
-        <v>2.7068</v>
+        <v>2.7067999999999999</v>
       </c>
       <c r="G54">
         <v>10.968</v>
       </c>
       <c r="H54">
-        <v>159.6606</v>
+        <v>159.66059999999999</v>
       </c>
       <c r="I54">
         <v>3.677</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -1972,7 +2024,7 @@
         <v>2768.34</v>
       </c>
       <c r="C55">
-        <v>1.35065396950723</v>
+        <v>1.3506539695072299</v>
       </c>
       <c r="D55">
         <v>0.89</v>
@@ -1981,7 +2033,7 @@
         <v>345.4264</v>
       </c>
       <c r="F55">
-        <v>2.7284</v>
+        <v>2.7284000000000002</v>
       </c>
       <c r="G55">
         <v>11.416</v>
@@ -1990,10 +2042,10 @@
         <v>161.7996</v>
       </c>
       <c r="I55">
-        <v>3.744</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>3.7440000000000002</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -2004,25 +2056,25 @@
         <v>2.137863836729764</v>
       </c>
       <c r="D56">
-        <v>1.0475</v>
+        <v>1.0475000000000001</v>
       </c>
       <c r="E56">
-        <v>367.7143</v>
+        <v>367.71429999999998</v>
       </c>
       <c r="F56">
-        <v>2.7095</v>
+        <v>2.7094999999999998</v>
       </c>
       <c r="G56">
         <v>11.69</v>
       </c>
       <c r="H56">
-        <v>157.7219</v>
+        <v>157.72190000000001</v>
       </c>
       <c r="I56">
         <v>3.8066</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -2033,25 +2085,25 @@
         <v>1.350672153283778</v>
       </c>
       <c r="D57">
-        <v>1.0475</v>
+        <v>1.0475000000000001</v>
       </c>
       <c r="E57">
-        <v>367.7143</v>
+        <v>367.71429999999998</v>
       </c>
       <c r="F57">
-        <v>2.7095</v>
+        <v>2.7094999999999998</v>
       </c>
       <c r="G57">
         <v>11.69</v>
       </c>
       <c r="H57">
-        <v>157.7219</v>
+        <v>157.72190000000001</v>
       </c>
       <c r="I57">
         <v>3.8066</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -2059,10 +2111,10 @@
         <v>2769.21</v>
       </c>
       <c r="C58">
-        <v>0.9522410338125107</v>
+        <v>0.95224103381251068</v>
       </c>
       <c r="D58">
-        <v>0.837</v>
+        <v>0.83699999999999997</v>
       </c>
       <c r="E58">
         <v>178.8674</v>
@@ -2074,13 +2126,13 @@
         <v>11.88</v>
       </c>
       <c r="H58">
-        <v>168.6888</v>
+        <v>168.68879999999999</v>
       </c>
       <c r="I58">
-        <v>3.192</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>3.1920000000000002</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -2088,28 +2140,28 @@
         <v>2769.3</v>
       </c>
       <c r="C59">
-        <v>0.9788596529089911</v>
+        <v>0.97885965290899113</v>
       </c>
       <c r="D59">
-        <v>0.8786</v>
+        <v>0.87860000000000005</v>
       </c>
       <c r="E59">
         <v>176.3691</v>
       </c>
       <c r="F59">
-        <v>2.7413</v>
+        <v>2.7412999999999998</v>
       </c>
       <c r="G59">
         <v>11.57</v>
       </c>
       <c r="H59">
-        <v>169.6685</v>
+        <v>169.66849999999999</v>
       </c>
       <c r="I59">
-        <v>3.158</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>3.1579999999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -2117,19 +2169,19 @@
         <v>2771.46</v>
       </c>
       <c r="C60">
-        <v>1.372552704343147</v>
+        <v>1.3725527043431469</v>
       </c>
       <c r="D60">
-        <v>1.2353</v>
+        <v>1.2353000000000001</v>
       </c>
       <c r="E60">
-        <v>101.7566</v>
+        <v>101.75660000000001</v>
       </c>
       <c r="F60">
         <v>2.7481</v>
       </c>
       <c r="G60">
-        <v>14.354</v>
+        <v>14.353999999999999</v>
       </c>
       <c r="H60">
         <v>161.1026</v>
@@ -2138,7 +2190,7 @@
         <v>2.8929</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -2149,25 +2201,25 @@
         <v>1.583935116124807</v>
       </c>
       <c r="D61">
-        <v>1.12</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="E61">
-        <v>106.799</v>
+        <v>106.79900000000001</v>
       </c>
       <c r="F61">
-        <v>2.7566</v>
+        <v>2.7566000000000002</v>
       </c>
       <c r="G61">
-        <v>13.768</v>
+        <v>13.768000000000001</v>
       </c>
       <c r="H61">
-        <v>160.1536</v>
+        <v>160.15360000000001</v>
       </c>
       <c r="I61">
-        <v>2.9844</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>2.9843999999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -2175,7 +2227,7 @@
         <v>2771.62</v>
       </c>
       <c r="C62">
-        <v>2.82948966428104</v>
+        <v>2.8294896642810401</v>
       </c>
       <c r="D62">
         <v>1.2438</v>
@@ -2184,19 +2236,19 @@
         <v>131.1413</v>
       </c>
       <c r="F62">
-        <v>2.7663</v>
+        <v>2.7663000000000002</v>
       </c>
       <c r="G62">
         <v>13.13</v>
       </c>
       <c r="H62">
-        <v>159.1785</v>
+        <v>159.17850000000001</v>
       </c>
       <c r="I62">
         <v>3.0951</v>
       </c>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -2213,19 +2265,19 @@
         <v>131.1413</v>
       </c>
       <c r="F63">
-        <v>2.7663</v>
+        <v>2.7663000000000002</v>
       </c>
       <c r="G63">
         <v>13.13</v>
       </c>
       <c r="H63">
-        <v>159.1785</v>
+        <v>159.17850000000001</v>
       </c>
       <c r="I63">
         <v>3.0951</v>
       </c>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -2233,28 +2285,28 @@
         <v>2771.76</v>
       </c>
       <c r="C64">
-        <v>0.7694111523113508</v>
+        <v>0.76941115231135082</v>
       </c>
       <c r="D64">
-        <v>1.3676</v>
+        <v>1.3675999999999999</v>
       </c>
       <c r="E64">
         <v>155.4837</v>
       </c>
       <c r="F64">
-        <v>2.7768</v>
+        <v>2.7768000000000002</v>
       </c>
       <c r="G64">
-        <v>12.492</v>
+        <v>12.492000000000001</v>
       </c>
       <c r="H64">
-        <v>158.186</v>
+        <v>158.18600000000001</v>
       </c>
       <c r="I64">
-        <v>3.2186</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>3.2185999999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -2271,19 +2323,19 @@
         <v>210.2877</v>
       </c>
       <c r="F65">
-        <v>2.7687</v>
+        <v>2.7686999999999999</v>
       </c>
       <c r="G65">
         <v>12.238</v>
       </c>
       <c r="H65">
-        <v>157.003</v>
+        <v>157.00299999999999</v>
       </c>
       <c r="I65">
         <v>3.403</v>
       </c>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -2291,7 +2343,7 @@
         <v>2771.91</v>
       </c>
       <c r="C66">
-        <v>1.274768462563702</v>
+        <v>1.2747684625637019</v>
       </c>
       <c r="D66">
         <v>1.7578</v>
@@ -2300,19 +2352,19 @@
         <v>210.2877</v>
       </c>
       <c r="F66">
-        <v>2.7687</v>
+        <v>2.7686999999999999</v>
       </c>
       <c r="G66">
         <v>12.238</v>
       </c>
       <c r="H66">
-        <v>157.003</v>
+        <v>157.00299999999999</v>
       </c>
       <c r="I66">
         <v>3.403</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -2323,25 +2375,25 @@
         <v>1.784516585808684</v>
       </c>
       <c r="D67">
-        <v>0.724</v>
+        <v>0.72399999999999998</v>
       </c>
       <c r="E67">
-        <v>86.69499999999989</v>
+        <v>86.694999999999894</v>
       </c>
       <c r="F67">
-        <v>2.6752</v>
+        <v>2.6751999999999998</v>
       </c>
       <c r="G67">
         <v>15.224</v>
       </c>
       <c r="H67">
-        <v>170.9738</v>
+        <v>170.97380000000001</v>
       </c>
       <c r="I67">
-        <v>2.6022</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>2.6021999999999998</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -2349,28 +2401,28 @@
         <v>2778.2</v>
       </c>
       <c r="C68">
-        <v>0.9966162575844864</v>
+        <v>0.99661625758448635</v>
       </c>
       <c r="D68">
-        <v>1.013</v>
+        <v>1.0129999999999999</v>
       </c>
       <c r="E68">
         <v>262.4126</v>
       </c>
       <c r="F68">
-        <v>2.6554</v>
+        <v>2.6554000000000002</v>
       </c>
       <c r="G68">
         <v>13.18</v>
       </c>
       <c r="H68">
-        <v>164.6126</v>
+        <v>164.61259999999999</v>
       </c>
       <c r="I68">
-        <v>2.979</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>2.9790000000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -2384,10 +2436,10 @@
         <v>0.747</v>
       </c>
       <c r="E69">
-        <v>318.372</v>
+        <v>318.37200000000001</v>
       </c>
       <c r="F69">
-        <v>2.6834</v>
+        <v>2.6833999999999998</v>
       </c>
       <c r="G69">
         <v>13.016</v>
@@ -2396,10 +2448,10 @@
         <v>160.3954</v>
       </c>
       <c r="I69">
-        <v>3.0748</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>3.0748000000000002</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -2407,28 +2459,28 @@
         <v>2778.97</v>
       </c>
       <c r="C70">
-        <v>1.278088233495054</v>
+        <v>1.2780882334950541</v>
       </c>
       <c r="D70">
-        <v>1.0558</v>
+        <v>1.0558000000000001</v>
       </c>
       <c r="E70">
         <v>139.9873</v>
       </c>
       <c r="F70">
-        <v>2.6986</v>
+        <v>2.6985999999999999</v>
       </c>
       <c r="G70">
         <v>13.484</v>
       </c>
       <c r="H70">
-        <v>164.743</v>
+        <v>164.74299999999999</v>
       </c>
       <c r="I70">
-        <v>3.0028</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>3.0028000000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -2439,25 +2491,25 @@
         <v>0.9245018518728384</v>
       </c>
       <c r="D71">
-        <v>1.4426</v>
+        <v>1.4426000000000001</v>
       </c>
       <c r="E71">
-        <v>140.4647</v>
+        <v>140.46469999999999</v>
       </c>
       <c r="F71">
-        <v>2.6826</v>
+        <v>2.6825999999999999</v>
       </c>
       <c r="G71">
-        <v>12.444</v>
+        <v>12.444000000000001</v>
       </c>
       <c r="H71">
         <v>163.9402</v>
       </c>
       <c r="I71">
-        <v>2.8904</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>2.8904000000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -2468,10 +2520,10 @@
         <v>1.634414545562312</v>
       </c>
       <c r="D72">
-        <v>1.4047</v>
+        <v>1.4047000000000001</v>
       </c>
       <c r="E72">
-        <v>170.384</v>
+        <v>170.38399999999999</v>
       </c>
       <c r="F72">
         <v>2.6833</v>
@@ -2483,10 +2535,10 @@
         <v>163.6455</v>
       </c>
       <c r="I72">
-        <v>2.9605</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>2.9605000000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -2497,25 +2549,25 @@
         <v>1.363733867442172</v>
       </c>
       <c r="D73">
-        <v>1.0289</v>
+        <v>1.0288999999999999</v>
       </c>
       <c r="E73">
-        <v>256.1427</v>
+        <v>256.14269999999999</v>
       </c>
       <c r="F73">
-        <v>2.7006</v>
+        <v>2.7006000000000001</v>
       </c>
       <c r="G73">
-        <v>12.168</v>
+        <v>12.167999999999999</v>
       </c>
       <c r="H73">
         <v>163.6738</v>
       </c>
       <c r="I73">
-        <v>3.2506</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>3.2505999999999999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -2523,28 +2575,28 @@
         <v>2779.87</v>
       </c>
       <c r="C74">
-        <v>0.618808014863822</v>
+        <v>0.61880801486382198</v>
       </c>
       <c r="D74">
-        <v>0.971</v>
+        <v>0.97099999999999997</v>
       </c>
       <c r="E74">
-        <v>433.1285</v>
+        <v>433.12849999999997</v>
       </c>
       <c r="F74">
         <v>2.7296</v>
       </c>
       <c r="G74">
-        <v>11.938</v>
+        <v>11.938000000000001</v>
       </c>
       <c r="H74">
-        <v>162.5057</v>
+        <v>162.50569999999999</v>
       </c>
       <c r="I74">
-        <v>3.6378</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>3.6377999999999999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -2552,28 +2604,28 @@
         <v>2781.22</v>
       </c>
       <c r="C75">
-        <v>0.3930689158020759</v>
+        <v>0.39306891580207592</v>
       </c>
       <c r="D75">
         <v>1.234</v>
       </c>
       <c r="E75">
-        <v>397.5903</v>
+        <v>397.59030000000001</v>
       </c>
       <c r="F75">
-        <v>2.748</v>
+        <v>2.7480000000000002</v>
       </c>
       <c r="G75">
-        <v>10.348</v>
+        <v>10.348000000000001</v>
       </c>
       <c r="H75">
-        <v>136.1365</v>
+        <v>136.13650000000001</v>
       </c>
       <c r="I75">
-        <v>3.9393</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>3.9392999999999998</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -2581,13 +2633,13 @@
         <v>2781.56</v>
       </c>
       <c r="C76">
-        <v>0.8037420684351529</v>
+        <v>0.80374206843515295</v>
       </c>
       <c r="D76">
-        <v>0.8110000000000001</v>
+        <v>0.81100000000000005</v>
       </c>
       <c r="E76">
-        <v>296.7892</v>
+        <v>296.78919999999999</v>
       </c>
       <c r="F76">
         <v>2.746</v>
@@ -2599,10 +2651,10 @@
         <v>154.7252</v>
       </c>
       <c r="I76">
-        <v>4.0296</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>4.0296000000000003</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -2610,19 +2662,19 @@
         <v>2782.26</v>
       </c>
       <c r="C77">
-        <v>2.09089282482766</v>
+        <v>2.0908928248276601</v>
       </c>
       <c r="D77">
-        <v>1.0877</v>
+        <v>1.0876999999999999</v>
       </c>
       <c r="E77">
-        <v>809.5158</v>
+        <v>809.51580000000001</v>
       </c>
       <c r="F77">
-        <v>2.6836</v>
+        <v>2.6836000000000002</v>
       </c>
       <c r="G77">
-        <v>10.614</v>
+        <v>10.614000000000001</v>
       </c>
       <c r="H77">
         <v>151.9683</v>
@@ -2631,7 +2683,7 @@
         <v>4.1913</v>
       </c>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -2639,16 +2691,16 @@
         <v>2782.68</v>
       </c>
       <c r="C78">
-        <v>0.7196514127092049</v>
+        <v>0.71965141270920485</v>
       </c>
       <c r="D78">
-        <v>0.8172</v>
+        <v>0.81720000000000004</v>
       </c>
       <c r="E78">
-        <v>831.8123000000001</v>
+        <v>831.81230000000005</v>
       </c>
       <c r="F78">
-        <v>2.6547</v>
+        <v>2.6547000000000001</v>
       </c>
       <c r="G78">
         <v>11.366</v>
@@ -2660,7 +2712,7 @@
         <v>4.2054</v>
       </c>
     </row>
-    <row r="79" spans="1:9">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -2674,22 +2726,22 @@
         <v>1.286</v>
       </c>
       <c r="E79">
-        <v>1287.5006</v>
+        <v>1287.5006000000001</v>
       </c>
       <c r="F79">
         <v>2.7294</v>
       </c>
       <c r="G79">
-        <v>13.332</v>
+        <v>13.332000000000001</v>
       </c>
       <c r="H79">
-        <v>148.926</v>
+        <v>148.92599999999999</v>
       </c>
       <c r="I79">
-        <v>4.1328</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>4.1327999999999996</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -2697,28 +2749,28 @@
         <v>2785.37</v>
       </c>
       <c r="C80">
-        <v>2.559678061819605</v>
+        <v>2.5596780618196049</v>
       </c>
       <c r="D80">
-        <v>1.769</v>
+        <v>1.7689999999999999</v>
       </c>
       <c r="E80">
         <v>1171.7673</v>
       </c>
       <c r="F80">
-        <v>2.6916</v>
+        <v>2.6916000000000002</v>
       </c>
       <c r="G80">
         <v>10.664</v>
       </c>
       <c r="H80">
-        <v>162.9634</v>
+        <v>162.96340000000001</v>
       </c>
       <c r="I80">
-        <v>3.9136</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>3.9136000000000002</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -2732,22 +2784,22 @@
         <v>1.03</v>
       </c>
       <c r="E81">
-        <v>159.6685</v>
+        <v>159.66849999999999</v>
       </c>
       <c r="F81">
-        <v>2.6618</v>
+        <v>2.6617999999999999</v>
       </c>
       <c r="G81">
         <v>15.86</v>
       </c>
       <c r="H81">
-        <v>161.2546</v>
+        <v>161.25460000000001</v>
       </c>
       <c r="I81">
-        <v>3.6118</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>3.6118000000000001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -2755,13 +2807,13 @@
         <v>2787.37</v>
       </c>
       <c r="C82">
-        <v>0.8590459130521165</v>
+        <v>0.85904591305211653</v>
       </c>
       <c r="D82">
         <v>1.468</v>
       </c>
       <c r="E82">
-        <v>159.7411</v>
+        <v>159.74109999999999</v>
       </c>
       <c r="F82">
         <v>2.6894</v>
@@ -2770,13 +2822,13 @@
         <v>15.468</v>
       </c>
       <c r="H82">
-        <v>168.6716</v>
+        <v>168.67160000000001</v>
       </c>
       <c r="I82">
-        <v>3.5828</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>3.5828000000000002</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -2784,28 +2836,28 @@
         <v>2787.55</v>
       </c>
       <c r="C83">
-        <v>1.214804201777801</v>
+        <v>1.2148042017778009</v>
       </c>
       <c r="D83">
         <v>1.103</v>
       </c>
       <c r="E83">
-        <v>130.4668</v>
+        <v>130.46680000000001</v>
       </c>
       <c r="F83">
-        <v>2.6986</v>
+        <v>2.6985999999999999</v>
       </c>
       <c r="G83">
         <v>14.956</v>
       </c>
       <c r="H83">
-        <v>174.586</v>
+        <v>174.58600000000001</v>
       </c>
       <c r="I83">
         <v>3.34</v>
       </c>
     </row>
-    <row r="84" spans="1:9">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -2813,28 +2865,28 @@
         <v>2787.88</v>
       </c>
       <c r="C84">
-        <v>2.037860804722433</v>
+        <v>2.0378608047224329</v>
       </c>
       <c r="D84">
-        <v>1.2166</v>
+        <v>1.2165999999999999</v>
       </c>
       <c r="E84">
         <v>113.0583</v>
       </c>
       <c r="F84">
-        <v>2.7431</v>
+        <v>2.7431000000000001</v>
       </c>
       <c r="G84">
         <v>12.762</v>
       </c>
       <c r="H84">
-        <v>170.3577</v>
+        <v>170.35769999999999</v>
       </c>
       <c r="I84">
-        <v>3.0267</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>3.0266999999999999</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -2845,25 +2897,25 @@
         <v>1.309381219555779</v>
       </c>
       <c r="D85">
-        <v>0.7007</v>
+        <v>0.70069999999999999</v>
       </c>
       <c r="E85">
-        <v>629.0064</v>
+        <v>629.00639999999999</v>
       </c>
       <c r="F85">
-        <v>2.7116</v>
+        <v>2.7115999999999998</v>
       </c>
       <c r="G85">
-        <v>9.316000000000001</v>
+        <v>9.3160000000000007</v>
       </c>
       <c r="H85">
-        <v>162.974</v>
+        <v>162.97399999999999</v>
       </c>
       <c r="I85">
-        <v>3.9064</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>3.9064000000000001</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -2880,19 +2932,19 @@
         <v>108.2814</v>
       </c>
       <c r="F86">
-        <v>2.753</v>
+        <v>2.7530000000000001</v>
       </c>
       <c r="G86">
-        <v>16.26</v>
+        <v>16.260000000000002</v>
       </c>
       <c r="H86">
         <v>176.274</v>
       </c>
       <c r="I86">
-        <v>3.143</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>3.1429999999999998</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -2903,25 +2955,25 @@
         <v>1.601559170835422</v>
       </c>
       <c r="D87">
-        <v>1.7166</v>
+        <v>1.7165999999999999</v>
       </c>
       <c r="E87">
-        <v>95.5802</v>
+        <v>95.580200000000005</v>
       </c>
       <c r="F87">
-        <v>2.7078</v>
+        <v>2.7078000000000002</v>
       </c>
       <c r="G87">
-        <v>18.58</v>
+        <v>18.579999999999998</v>
       </c>
       <c r="H87">
-        <v>169.3786</v>
+        <v>169.37860000000001</v>
       </c>
       <c r="I87">
-        <v>3.0176</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>3.0175999999999998</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -2938,19 +2990,19 @@
         <v>109.255</v>
       </c>
       <c r="F88">
-        <v>2.6967</v>
+        <v>2.6966999999999999</v>
       </c>
       <c r="G88">
-        <v>18.742</v>
+        <v>18.742000000000001</v>
       </c>
       <c r="H88">
         <v>166.0667</v>
       </c>
       <c r="I88">
-        <v>3.0287</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>3.0287000000000002</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -2964,22 +3016,22 @@
         <v>1.661</v>
       </c>
       <c r="E89">
-        <v>148.1702</v>
+        <v>148.17019999999999</v>
       </c>
       <c r="F89">
-        <v>2.775</v>
+        <v>2.7749999999999999</v>
       </c>
       <c r="G89">
-        <v>19.672</v>
+        <v>19.672000000000001</v>
       </c>
       <c r="H89">
         <v>168.489</v>
       </c>
       <c r="I89">
-        <v>3.3978</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>3.3978000000000002</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -2990,25 +3042,25 @@
         <v>1.058096296994445</v>
       </c>
       <c r="D90">
-        <v>1.6195</v>
+        <v>1.6194999999999999</v>
       </c>
       <c r="E90">
         <v>126.4306</v>
       </c>
       <c r="F90">
-        <v>2.7055</v>
+        <v>2.7054999999999998</v>
       </c>
       <c r="G90">
-        <v>18.268</v>
+        <v>18.268000000000001</v>
       </c>
       <c r="H90">
         <v>177.1491</v>
       </c>
       <c r="I90">
-        <v>3.2186</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>3.2185999999999999</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -3025,19 +3077,19 @@
         <v>127.9559</v>
       </c>
       <c r="F91">
-        <v>2.713</v>
+        <v>2.7130000000000001</v>
       </c>
       <c r="G91">
-        <v>17.496</v>
+        <v>17.495999999999999</v>
       </c>
       <c r="H91">
-        <v>173.3376</v>
+        <v>173.33760000000001</v>
       </c>
       <c r="I91">
-        <v>3.3096</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>3.3096000000000001</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -3045,28 +3097,28 @@
         <v>2814.89</v>
       </c>
       <c r="C92">
-        <v>0.9218875898521885</v>
+        <v>0.92188758985218855</v>
       </c>
       <c r="D92">
-        <v>1.0454</v>
+        <v>1.0454000000000001</v>
       </c>
       <c r="E92">
-        <v>272.2436</v>
+        <v>272.24360000000001</v>
       </c>
       <c r="F92">
-        <v>2.7046</v>
+        <v>2.7046000000000001</v>
       </c>
       <c r="G92">
-        <v>16.196</v>
+        <v>16.196000000000002</v>
       </c>
       <c r="H92">
-        <v>162.9351</v>
+        <v>162.93510000000001</v>
       </c>
       <c r="I92">
-        <v>3.7021</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>3.7021000000000002</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -3074,28 +3126,28 @@
         <v>2815.05</v>
       </c>
       <c r="C93">
-        <v>1.356067942758186</v>
+        <v>1.3560679427581861</v>
       </c>
       <c r="D93">
         <v>1.228</v>
       </c>
       <c r="E93">
-        <v>480.3052</v>
+        <v>480.30520000000001</v>
       </c>
       <c r="F93">
-        <v>2.6644</v>
+        <v>2.6644000000000001</v>
       </c>
       <c r="G93">
-        <v>16.016</v>
+        <v>16.015999999999998</v>
       </c>
       <c r="H93">
-        <v>160.0407</v>
+        <v>160.04069999999999</v>
       </c>
       <c r="I93">
-        <v>3.9208</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>3.9207999999999998</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -3103,19 +3155,19 @@
         <v>2815.89</v>
       </c>
       <c r="C94">
-        <v>0.5909940383313894</v>
+        <v>0.59099403833138942</v>
       </c>
       <c r="D94">
-        <v>1.3944</v>
+        <v>1.3944000000000001</v>
       </c>
       <c r="E94">
-        <v>221.5372</v>
+        <v>221.53720000000001</v>
       </c>
       <c r="F94">
-        <v>2.7149</v>
+        <v>2.7149000000000001</v>
       </c>
       <c r="G94">
-        <v>16.772</v>
+        <v>16.771999999999998</v>
       </c>
       <c r="H94">
         <v>157.6293</v>
@@ -3124,7 +3176,7 @@
         <v>3.59</v>
       </c>
     </row>
-    <row r="95" spans="1:9">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -3132,28 +3184,28 @@
         <v>2817.47</v>
       </c>
       <c r="C95">
-        <v>0.5743966250503417</v>
+        <v>0.57439662505034172</v>
       </c>
       <c r="D95">
         <v>1.2121</v>
       </c>
       <c r="E95">
-        <v>210.3472</v>
+        <v>210.34719999999999</v>
       </c>
       <c r="F95">
-        <v>2.721</v>
+        <v>2.7210000000000001</v>
       </c>
       <c r="G95">
-        <v>17.336</v>
+        <v>17.335999999999999</v>
       </c>
       <c r="H95">
-        <v>170.5764</v>
+        <v>170.57640000000001</v>
       </c>
       <c r="I95">
         <v>3.6972</v>
       </c>
     </row>
-    <row r="96" spans="1:9">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -3161,28 +3213,28 @@
         <v>2818.03</v>
       </c>
       <c r="C96">
-        <v>0.4578515996308422</v>
+        <v>0.45785159963084221</v>
       </c>
       <c r="D96">
         <v>2.8546</v>
       </c>
       <c r="E96">
-        <v>133.4801</v>
+        <v>133.48009999999999</v>
       </c>
       <c r="F96">
-        <v>2.6781</v>
+        <v>2.6781000000000001</v>
       </c>
       <c r="G96">
-        <v>17.144</v>
+        <v>17.143999999999998</v>
       </c>
       <c r="H96">
         <v>173.0609</v>
       </c>
       <c r="I96">
-        <v>3.065</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>3.0649999999999999</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -3193,7 +3245,7 @@
         <v>0.5257567596425694</v>
       </c>
       <c r="D97">
-        <v>1.366</v>
+        <v>1.3660000000000001</v>
       </c>
       <c r="E97">
         <v>87.637</v>
@@ -3205,13 +3257,13 @@
         <v>18.904</v>
       </c>
       <c r="H97">
-        <v>178.4884</v>
+        <v>178.48840000000001</v>
       </c>
       <c r="I97">
-        <v>2.961</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>2.9609999999999999</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -3222,25 +3274,25 @@
         <v>1.064208599178271</v>
       </c>
       <c r="D98">
-        <v>1.0073</v>
+        <v>1.0073000000000001</v>
       </c>
       <c r="E98">
-        <v>110.9275</v>
+        <v>110.92749999999999</v>
       </c>
       <c r="F98">
         <v>2.6713</v>
       </c>
       <c r="G98">
-        <v>18.58</v>
+        <v>18.579999999999998</v>
       </c>
       <c r="H98">
         <v>178.512</v>
       </c>
       <c r="I98">
-        <v>3.1398</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>3.1398000000000001</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -3248,28 +3300,28 @@
         <v>2820.28</v>
       </c>
       <c r="C99">
-        <v>0.7806329614999948</v>
+        <v>0.78063296149999484</v>
       </c>
       <c r="D99">
         <v>1.2745</v>
       </c>
       <c r="E99">
-        <v>257.9514</v>
+        <v>257.95139999999998</v>
       </c>
       <c r="F99">
-        <v>2.6544</v>
+        <v>2.6543999999999999</v>
       </c>
       <c r="G99">
-        <v>18.504</v>
+        <v>18.504000000000001</v>
       </c>
       <c r="H99">
-        <v>163.7367</v>
+        <v>163.73670000000001</v>
       </c>
       <c r="I99">
-        <v>3.8259</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>3.8258999999999999</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -3283,22 +3335,22 @@
         <v>1.671</v>
       </c>
       <c r="E100">
-        <v>94.3956</v>
+        <v>94.395600000000002</v>
       </c>
       <c r="F100">
-        <v>2.719</v>
+        <v>2.7189999999999999</v>
       </c>
       <c r="G100">
-        <v>18.864</v>
+        <v>18.864000000000001</v>
       </c>
       <c r="H100">
-        <v>178.903</v>
+        <v>178.90299999999999</v>
       </c>
       <c r="I100">
         <v>2.6854</v>
       </c>
     </row>
-    <row r="101" spans="1:9">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -3306,16 +3358,16 @@
         <v>2821.75</v>
       </c>
       <c r="C101">
-        <v>1.283829016770294</v>
+        <v>1.2838290167702939</v>
       </c>
       <c r="D101">
-        <v>1.404</v>
+        <v>1.4039999999999999</v>
       </c>
       <c r="E101">
         <v>100.9114</v>
       </c>
       <c r="F101">
-        <v>2.6602</v>
+        <v>2.6602000000000001</v>
       </c>
       <c r="G101">
         <v>19.712</v>
@@ -3327,7 +3379,7 @@
         <v>2.91</v>
       </c>
     </row>
-    <row r="102" spans="1:9">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -3335,7 +3387,7 @@
         <v>2822.37</v>
       </c>
       <c r="C102">
-        <v>0.6659055887874911</v>
+        <v>0.66590558878749107</v>
       </c>
       <c r="D102">
         <v>1.448</v>
@@ -3344,7 +3396,7 @@
         <v>157.5395</v>
       </c>
       <c r="F102">
-        <v>2.6502</v>
+        <v>2.6501999999999999</v>
       </c>
       <c r="G102">
         <v>15.352</v>
@@ -3353,10 +3405,10 @@
         <v>174.7602</v>
       </c>
       <c r="I102">
-        <v>3.2452</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>3.2452000000000001</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -3364,28 +3416,28 @@
         <v>2823.1</v>
       </c>
       <c r="C103">
-        <v>0.5693276492903229</v>
+        <v>0.56932764929032287</v>
       </c>
       <c r="D103">
-        <v>1.3965</v>
+        <v>1.3965000000000001</v>
       </c>
       <c r="E103">
         <v>108.9984</v>
       </c>
       <c r="F103">
-        <v>2.7855</v>
+        <v>2.7854999999999999</v>
       </c>
       <c r="G103">
-        <v>19.676</v>
+        <v>19.675999999999998</v>
       </c>
       <c r="H103">
         <v>169.4169</v>
       </c>
       <c r="I103">
-        <v>3.049</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>3.0489999999999999</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -3393,13 +3445,13 @@
         <v>2823.25</v>
       </c>
       <c r="C104">
-        <v>0.6408579746550926</v>
+        <v>0.64085797465509264</v>
       </c>
       <c r="D104">
         <v>1.1716</v>
       </c>
       <c r="E104">
-        <v>118.2601</v>
+        <v>118.26009999999999</v>
       </c>
       <c r="F104">
         <v>2.7986</v>
@@ -3408,13 +3460,13 @@
         <v>18.96</v>
       </c>
       <c r="H104">
-        <v>164.1016</v>
+        <v>164.10159999999999</v>
       </c>
       <c r="I104">
-        <v>3.0895</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>3.0895000000000001</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -3422,7 +3474,7 @@
         <v>2823.39</v>
       </c>
       <c r="C105">
-        <v>0.7074361130603434</v>
+        <v>0.70743611306034337</v>
       </c>
       <c r="D105">
         <v>1.3552</v>
@@ -3431,19 +3483,19 @@
         <v>127.4782</v>
       </c>
       <c r="F105">
-        <v>2.7446</v>
+        <v>2.7446000000000002</v>
       </c>
       <c r="G105">
-        <v>18.208</v>
+        <v>18.207999999999998</v>
       </c>
       <c r="H105">
-        <v>163.4176</v>
+        <v>163.41759999999999</v>
       </c>
       <c r="I105">
-        <v>3.227</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>3.2269999999999999</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -3457,22 +3509,22 @@
         <v>1.3425</v>
       </c>
       <c r="E106">
-        <v>142.2986</v>
+        <v>142.29859999999999</v>
       </c>
       <c r="F106">
-        <v>2.7224</v>
+        <v>2.7223999999999999</v>
       </c>
       <c r="G106">
-        <v>14.608</v>
+        <v>14.608000000000001</v>
       </c>
       <c r="H106">
         <v>152.8742</v>
       </c>
       <c r="I106">
-        <v>3.5452</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>3.5451999999999999</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -3480,7 +3532,7 @@
         <v>2824.42</v>
       </c>
       <c r="C107">
-        <v>5.434722304589259</v>
+        <v>5.4347223045892594</v>
       </c>
       <c r="D107">
         <v>1.2847</v>
@@ -3489,19 +3541,19 @@
         <v>512.9828</v>
       </c>
       <c r="F107">
-        <v>2.7111</v>
+        <v>2.7111000000000001</v>
       </c>
       <c r="G107">
-        <v>14.848</v>
+        <v>14.848000000000001</v>
       </c>
       <c r="H107">
-        <v>156.1564</v>
+        <v>156.15639999999999</v>
       </c>
       <c r="I107">
-        <v>4.1948</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>4.1947999999999999</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -3509,28 +3561,28 @@
         <v>2824.54</v>
       </c>
       <c r="C108">
-        <v>7.216185185185185</v>
+        <v>7.2161851851851848</v>
       </c>
       <c r="D108">
-        <v>1.519</v>
+        <v>1.5189999999999999</v>
       </c>
       <c r="E108">
-        <v>634.116599999999</v>
+        <v>634.11659999999904</v>
       </c>
       <c r="F108">
-        <v>2.6746</v>
+        <v>2.6745999999999999</v>
       </c>
       <c r="G108">
-        <v>15.408</v>
+        <v>15.407999999999999</v>
       </c>
       <c r="H108">
         <v>157.1404</v>
       </c>
       <c r="I108">
-        <v>4.2878</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>4.2877999999999998</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -3541,25 +3593,25 @@
         <v>1.941789767600733</v>
       </c>
       <c r="D109">
-        <v>1.053</v>
+        <v>1.0529999999999999</v>
       </c>
       <c r="E109">
-        <v>83.0556</v>
+        <v>83.055599999999998</v>
       </c>
       <c r="F109">
         <v>2.7058</v>
       </c>
       <c r="G109">
-        <v>20.424</v>
+        <v>20.423999999999999</v>
       </c>
       <c r="H109">
-        <v>178.2143</v>
+        <v>178.21430000000001</v>
       </c>
       <c r="I109">
-        <v>2.6672</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>2.6671999999999998</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -3567,16 +3619,16 @@
         <v>2826.36</v>
       </c>
       <c r="C110">
-        <v>2.956446494457461</v>
+        <v>2.9564464944574609</v>
       </c>
       <c r="D110">
-        <v>1.168</v>
+        <v>1.1679999999999999</v>
       </c>
       <c r="E110">
-        <v>77.5445</v>
+        <v>77.544499999999999</v>
       </c>
       <c r="F110">
-        <v>2.7238</v>
+        <v>2.7238000000000002</v>
       </c>
       <c r="G110">
         <v>20.32</v>
@@ -3585,10 +3637,10 @@
         <v>174.9648</v>
       </c>
       <c r="I110">
-        <v>2.7592</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>2.7591999999999999</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -3596,28 +3648,28 @@
         <v>2827.14</v>
       </c>
       <c r="C111">
-        <v>0.5439555878333004</v>
+        <v>0.54395558783330045</v>
       </c>
       <c r="D111">
         <v>0.876</v>
       </c>
       <c r="E111">
-        <v>95.49939999999989</v>
+        <v>95.499399999999895</v>
       </c>
       <c r="F111">
-        <v>2.662</v>
+        <v>2.6619999999999999</v>
       </c>
       <c r="G111">
-        <v>21.296</v>
+        <v>21.295999999999999</v>
       </c>
       <c r="H111">
-        <v>167.7026</v>
+        <v>167.70259999999999</v>
       </c>
       <c r="I111">
         <v>3.1126</v>
       </c>
     </row>
-    <row r="112" spans="1:9">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -3625,28 +3677,28 @@
         <v>2827.28</v>
       </c>
       <c r="C112">
-        <v>0.4488726443064262</v>
+        <v>0.44887264430642621</v>
       </c>
       <c r="D112">
-        <v>0.9714</v>
+        <v>0.97140000000000004</v>
       </c>
       <c r="E112">
-        <v>96.0068</v>
+        <v>96.006799999999998</v>
       </c>
       <c r="F112">
-        <v>2.6685</v>
+        <v>2.6684999999999999</v>
       </c>
       <c r="G112">
-        <v>21.292</v>
+        <v>21.292000000000002</v>
       </c>
       <c r="H112">
-        <v>166.5006</v>
+        <v>166.50059999999999</v>
       </c>
       <c r="I112">
         <v>3.1732</v>
       </c>
     </row>
-    <row r="113" spans="1:9">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -3654,28 +3706,28 @@
         <v>2827.77</v>
       </c>
       <c r="C113">
-        <v>0.2710029203383055</v>
+        <v>0.27100292033830548</v>
       </c>
       <c r="D113">
-        <v>1.338</v>
+        <v>1.3380000000000001</v>
       </c>
       <c r="E113">
-        <v>97.03919999999989</v>
+        <v>97.039199999999894</v>
       </c>
       <c r="F113">
-        <v>2.7118</v>
+        <v>2.7118000000000002</v>
       </c>
       <c r="G113">
-        <v>24.472</v>
+        <v>24.472000000000001</v>
       </c>
       <c r="H113">
-        <v>166.871</v>
+        <v>166.87100000000001</v>
       </c>
       <c r="I113">
-        <v>3.2148</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>3.2147999999999999</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -3683,10 +3735,10 @@
         <v>2830.12</v>
       </c>
       <c r="C114">
-        <v>0.7987443428385166</v>
+        <v>0.79874434283851659</v>
       </c>
       <c r="D114">
-        <v>1.1359</v>
+        <v>1.1358999999999999</v>
       </c>
       <c r="E114">
         <v>105.0758</v>
@@ -3695,16 +3747,16 @@
         <v>2.734</v>
       </c>
       <c r="G114">
-        <v>24.632</v>
+        <v>24.632000000000001</v>
       </c>
       <c r="H114">
-        <v>174.3738</v>
+        <v>174.37379999999999</v>
       </c>
       <c r="I114">
-        <v>3.5338</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>3.5337999999999998</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -3712,28 +3764,28 @@
         <v>2830.9</v>
       </c>
       <c r="C115">
-        <v>0.2105791777360747</v>
+        <v>0.21057917773607471</v>
       </c>
       <c r="D115">
-        <v>0.9805</v>
+        <v>0.98050000000000004</v>
       </c>
       <c r="E115">
-        <v>72.99720000000001</v>
+        <v>72.997200000000007</v>
       </c>
       <c r="F115">
-        <v>2.6941</v>
+        <v>2.6941000000000002</v>
       </c>
       <c r="G115">
         <v>27.92</v>
       </c>
       <c r="H115">
-        <v>167.5113</v>
+        <v>167.51130000000001</v>
       </c>
       <c r="I115">
-        <v>3.1487</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>3.1486999999999998</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -3741,13 +3793,13 @@
         <v>2831.32</v>
       </c>
       <c r="C116">
-        <v>0.2187816717813972</v>
+        <v>0.21878167178139721</v>
       </c>
       <c r="D116">
         <v>1.619</v>
       </c>
       <c r="E116">
-        <v>102.3183</v>
+        <v>102.31829999999999</v>
       </c>
       <c r="F116">
         <v>2.5806</v>
@@ -3756,13 +3808,13 @@
         <v>27.032</v>
       </c>
       <c r="H116">
-        <v>156.651</v>
+        <v>156.65100000000001</v>
       </c>
       <c r="I116">
-        <v>3.3842</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>3.3841999999999999</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -3770,28 +3822,28 @@
         <v>2831.84</v>
       </c>
       <c r="C117">
-        <v>1.33192499789466</v>
+        <v>1.3319249978946599</v>
       </c>
       <c r="D117">
-        <v>1.1599</v>
+        <v>1.1598999999999999</v>
       </c>
       <c r="E117">
-        <v>576.4272</v>
+        <v>576.42719999999997</v>
       </c>
       <c r="F117">
-        <v>2.6636</v>
+        <v>2.6636000000000002</v>
       </c>
       <c r="G117">
         <v>29.276</v>
       </c>
       <c r="H117">
-        <v>152.55</v>
+        <v>152.55000000000001</v>
       </c>
       <c r="I117">
-        <v>4.0754</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>4.0754000000000001</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -3799,28 +3851,28 @@
         <v>2833.1</v>
       </c>
       <c r="C118">
-        <v>0.501326172614008</v>
+        <v>0.50132617261400803</v>
       </c>
       <c r="D118">
         <v>1.3323</v>
       </c>
       <c r="E118">
-        <v>24.4248</v>
+        <v>24.424800000000001</v>
       </c>
       <c r="F118">
-        <v>2.7071</v>
+        <v>2.7071000000000001</v>
       </c>
       <c r="G118">
         <v>43.692</v>
       </c>
       <c r="H118">
-        <v>189.0808</v>
+        <v>189.08080000000001</v>
       </c>
       <c r="I118">
-        <v>2.3899</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>2.3898999999999999</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -3831,25 +3883,25 @@
         <v>1.184394870715598</v>
       </c>
       <c r="D119">
-        <v>0.3936</v>
+        <v>0.39360000000000001</v>
       </c>
       <c r="E119">
-        <v>99.52070000000001</v>
+        <v>99.520700000000005</v>
       </c>
       <c r="F119">
-        <v>2.739</v>
+        <v>2.7389999999999999</v>
       </c>
       <c r="G119">
-        <v>28.296</v>
+        <v>28.295999999999999</v>
       </c>
       <c r="H119">
         <v>162.5712</v>
       </c>
       <c r="I119">
-        <v>3.567</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>3.5670000000000002</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -3857,7 +3909,7 @@
         <v>2835.35</v>
       </c>
       <c r="C120">
-        <v>0.699969785186872</v>
+        <v>0.69996978518687203</v>
       </c>
       <c r="D120">
         <v>0.378</v>
@@ -3866,7 +3918,7 @@
         <v>126.2161</v>
       </c>
       <c r="F120">
-        <v>2.7468</v>
+        <v>2.7467999999999999</v>
       </c>
       <c r="G120">
         <v>28.96</v>
@@ -3875,10 +3927,10 @@
         <v>169.0702</v>
       </c>
       <c r="I120">
-        <v>3.5148</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>3.5148000000000001</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -3889,16 +3941,16 @@
         <v>0.5149008098352944</v>
       </c>
       <c r="D121">
-        <v>0.5582</v>
+        <v>0.55820000000000003</v>
       </c>
       <c r="E121">
-        <v>76.4318</v>
+        <v>76.431799999999996</v>
       </c>
       <c r="F121">
-        <v>2.6916</v>
+        <v>2.6916000000000002</v>
       </c>
       <c r="G121">
-        <v>32.344</v>
+        <v>32.344000000000001</v>
       </c>
       <c r="H121">
         <v>186.3878</v>
@@ -3907,7 +3959,7 @@
         <v>2.867</v>
       </c>
     </row>
-    <row r="122" spans="1:9">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -3915,28 +3967,28 @@
         <v>2835.97</v>
       </c>
       <c r="C122">
-        <v>0.5492909471578847</v>
+        <v>0.54929094715788473</v>
       </c>
       <c r="D122">
-        <v>0.597</v>
+        <v>0.59699999999999998</v>
       </c>
       <c r="E122">
         <v>46.8446</v>
       </c>
       <c r="F122">
-        <v>2.6756</v>
+        <v>2.6756000000000002</v>
       </c>
       <c r="G122">
         <v>32.552</v>
       </c>
       <c r="H122">
-        <v>181.4814</v>
+        <v>181.48140000000001</v>
       </c>
       <c r="I122">
-        <v>2.6142</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>2.6141999999999999</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -3944,28 +3996,28 @@
         <v>2837.3</v>
       </c>
       <c r="C123">
-        <v>1.562289661042238</v>
+        <v>1.5622896610422381</v>
       </c>
       <c r="D123">
-        <v>0.6465</v>
+        <v>0.64649999999999996</v>
       </c>
       <c r="E123">
-        <v>98.1194</v>
+        <v>98.119399999999999</v>
       </c>
       <c r="F123">
-        <v>2.6579</v>
+        <v>2.6579000000000002</v>
       </c>
       <c r="G123">
-        <v>19.332</v>
+        <v>19.332000000000001</v>
       </c>
       <c r="H123">
-        <v>154.7352</v>
+        <v>154.73519999999999</v>
       </c>
       <c r="I123">
-        <v>3.7533</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>3.7532999999999999</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -3973,13 +4025,13 @@
         <v>2837.65</v>
       </c>
       <c r="C124">
-        <v>1.557451600817798</v>
+        <v>1.5574516008177981</v>
       </c>
       <c r="D124">
-        <v>0.596</v>
+        <v>0.59599999999999997</v>
       </c>
       <c r="E124">
-        <v>130.7918</v>
+        <v>130.79179999999999</v>
       </c>
       <c r="F124">
         <v>2.68</v>
@@ -3988,13 +4040,13 @@
         <v>18.032</v>
       </c>
       <c r="H124">
-        <v>151.8097</v>
+        <v>151.80969999999999</v>
       </c>
       <c r="I124">
-        <v>4.0554</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>4.0553999999999997</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -4002,13 +4054,13 @@
         <v>2838.09</v>
       </c>
       <c r="C125">
-        <v>0.9218875898521885</v>
+        <v>0.92188758985218855</v>
       </c>
       <c r="D125">
-        <v>0.4895</v>
+        <v>0.48949999999999999</v>
       </c>
       <c r="E125">
-        <v>189.931</v>
+        <v>189.93100000000001</v>
       </c>
       <c r="F125">
         <v>2.7039</v>
@@ -4017,13 +4069,13 @@
         <v>17.936</v>
       </c>
       <c r="H125">
-        <v>160.2498</v>
+        <v>160.24979999999999</v>
       </c>
       <c r="I125">
-        <v>4.1983</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>4.1982999999999997</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -4031,16 +4083,16 @@
         <v>2838.28</v>
       </c>
       <c r="C126">
-        <v>1.637092655105527</v>
+        <v>1.6370926551055269</v>
       </c>
       <c r="D126">
-        <v>0.5807</v>
+        <v>0.58069999999999999</v>
       </c>
       <c r="E126">
-        <v>232.7778</v>
+        <v>232.77780000000001</v>
       </c>
       <c r="F126">
-        <v>2.7101</v>
+        <v>2.7101000000000002</v>
       </c>
       <c r="G126">
         <v>17.584</v>
@@ -4049,10 +4101,10 @@
         <v>164.4692</v>
       </c>
       <c r="I126">
-        <v>4.2804</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>4.2804000000000002</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -4063,25 +4115,25 @@
         <v>0.9230242491962436</v>
       </c>
       <c r="D127">
-        <v>0.783</v>
+        <v>0.78300000000000003</v>
       </c>
       <c r="E127">
-        <v>69.86709999999989</v>
+        <v>69.867099999999894</v>
       </c>
       <c r="F127">
-        <v>2.737</v>
+        <v>2.7370000000000001</v>
       </c>
       <c r="G127">
         <v>20.872</v>
       </c>
       <c r="H127">
-        <v>165.2674</v>
+        <v>165.26740000000001</v>
       </c>
       <c r="I127">
-        <v>3.6714</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>3.6714000000000002</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -4092,25 +4144,25 @@
         <v>1.618494272322575</v>
       </c>
       <c r="D128">
-        <v>0.606</v>
+        <v>0.60599999999999998</v>
       </c>
       <c r="E128">
-        <v>73.60209999999989</v>
+        <v>73.602099999999893</v>
       </c>
       <c r="F128">
-        <v>2.7436</v>
+        <v>2.7435999999999998</v>
       </c>
       <c r="G128">
-        <v>20.036</v>
+        <v>20.036000000000001</v>
       </c>
       <c r="H128">
-        <v>167.9063</v>
+        <v>167.90629999999999</v>
       </c>
       <c r="I128">
-        <v>3.6584</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>3.6583999999999999</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -4118,10 +4170,10 @@
         <v>2840.2</v>
       </c>
       <c r="C129">
-        <v>1.108156552312282</v>
+        <v>1.1081565523122821</v>
       </c>
       <c r="D129">
-        <v>0.791</v>
+        <v>0.79100000000000004</v>
       </c>
       <c r="E129">
         <v>105.7877</v>
@@ -4130,16 +4182,16 @@
         <v>2.6652</v>
       </c>
       <c r="G129">
-        <v>16.528</v>
+        <v>16.527999999999999</v>
       </c>
       <c r="H129">
         <v>158.8862</v>
       </c>
       <c r="I129">
-        <v>3.9912</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>3.9912000000000001</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -4147,13 +4199,13 @@
         <v>2840.61</v>
       </c>
       <c r="C130">
-        <v>1.746435139545253</v>
+        <v>1.7464351395452531</v>
       </c>
       <c r="D130">
-        <v>0.6605</v>
+        <v>0.66049999999999998</v>
       </c>
       <c r="E130">
-        <v>176.5597</v>
+        <v>176.55969999999999</v>
       </c>
       <c r="F130">
         <v>2.7624</v>
@@ -4162,13 +4214,13 @@
         <v>15.208</v>
       </c>
       <c r="H130">
-        <v>158.3839</v>
+        <v>158.38390000000001</v>
       </c>
       <c r="I130">
-        <v>4.1515</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>4.1515000000000004</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -4179,25 +4231,25 @@
         <v>3.100144600102742</v>
       </c>
       <c r="D131">
-        <v>0.7202</v>
+        <v>0.72019999999999995</v>
       </c>
       <c r="E131">
-        <v>280.0577</v>
+        <v>280.05770000000001</v>
       </c>
       <c r="F131">
         <v>2.7094</v>
       </c>
       <c r="G131">
-        <v>17.508</v>
+        <v>17.507999999999999</v>
       </c>
       <c r="H131">
-        <v>163.9943</v>
+        <v>163.99430000000001</v>
       </c>
       <c r="I131">
         <v>4.0526</v>
       </c>
     </row>
-    <row r="132" spans="1:9">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -4205,28 +4257,28 @@
         <v>2842.73</v>
       </c>
       <c r="C132">
-        <v>1.036556818181818</v>
+        <v>1.0365568181818181</v>
       </c>
       <c r="D132">
-        <v>0.639</v>
+        <v>0.63900000000000001</v>
       </c>
       <c r="E132">
         <v>197.3638</v>
       </c>
       <c r="F132">
-        <v>2.6886</v>
+        <v>2.6886000000000001</v>
       </c>
       <c r="G132">
         <v>20.76</v>
       </c>
       <c r="H132">
-        <v>163.1244</v>
+        <v>163.12440000000001</v>
       </c>
       <c r="I132">
         <v>3.8144</v>
       </c>
     </row>
-    <row r="133" spans="1:9">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -4234,28 +4286,28 @@
         <v>2843.23</v>
       </c>
       <c r="C133">
-        <v>5.102613478742347</v>
+        <v>5.1026134787423469</v>
       </c>
       <c r="D133">
-        <v>0.8915999999999999</v>
+        <v>0.89159999999999995</v>
       </c>
       <c r="E133">
         <v>151.4203</v>
       </c>
       <c r="F133">
-        <v>2.6596</v>
+        <v>2.6596000000000002</v>
       </c>
       <c r="G133">
         <v>20.46</v>
       </c>
       <c r="H133">
-        <v>162.1868</v>
+        <v>162.18680000000001</v>
       </c>
       <c r="I133">
-        <v>3.6981</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+        <v>3.6981000000000002</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -4263,10 +4315,10 @@
         <v>2844.56</v>
       </c>
       <c r="C134">
-        <v>2.480435396190346</v>
+        <v>2.4804353961903458</v>
       </c>
       <c r="D134">
-        <v>0.6830000000000001</v>
+        <v>0.68300000000000005</v>
       </c>
       <c r="E134">
         <v>220.2534</v>
@@ -4275,16 +4327,16 @@
         <v>2.6934</v>
       </c>
       <c r="G134">
-        <v>44.296</v>
+        <v>44.295999999999999</v>
       </c>
       <c r="H134">
-        <v>160.3676</v>
+        <v>160.36760000000001</v>
       </c>
       <c r="I134">
         <v>3.919</v>
       </c>
     </row>
-    <row r="135" spans="1:9">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -4310,10 +4362,10 @@
         <v>165.3689</v>
       </c>
       <c r="I135">
-        <v>2.7907</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+        <v>2.7907000000000002</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -4321,28 +4373,28 @@
         <v>2853.68</v>
       </c>
       <c r="C136">
-        <v>0.9410786496164422</v>
+        <v>0.94107864961644216</v>
       </c>
       <c r="D136">
-        <v>0.743</v>
+        <v>0.74299999999999999</v>
       </c>
       <c r="E136">
-        <v>47.3707</v>
+        <v>47.370699999999999</v>
       </c>
       <c r="F136">
-        <v>2.7224</v>
+        <v>2.7223999999999999</v>
       </c>
       <c r="G136">
-        <v>27.792</v>
+        <v>27.792000000000002</v>
       </c>
       <c r="H136">
         <v>165.2388</v>
       </c>
       <c r="I136">
-        <v>2.8888</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+        <v>2.8887999999999998</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -4356,22 +4408,22 @@
         <v>0.749</v>
       </c>
       <c r="E137">
-        <v>72.14279999999989</v>
+        <v>72.142799999999895</v>
       </c>
       <c r="F137">
-        <v>2.741</v>
+        <v>2.7410000000000001</v>
       </c>
       <c r="G137">
-        <v>26.624</v>
+        <v>26.623999999999999</v>
       </c>
       <c r="H137">
         <v>152.93</v>
       </c>
       <c r="I137">
-        <v>2.9976</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
+        <v>2.9975999999999998</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -4382,25 +4434,25 @@
         <v>3.161435230768626</v>
       </c>
       <c r="D138">
-        <v>0.9389999999999999</v>
+        <v>0.93899999999999995</v>
       </c>
       <c r="E138">
-        <v>96.3482999999999</v>
+        <v>96.348299999999895</v>
       </c>
       <c r="F138">
-        <v>2.716</v>
+        <v>2.7160000000000002</v>
       </c>
       <c r="G138">
-        <v>25.632</v>
+        <v>25.632000000000001</v>
       </c>
       <c r="H138">
         <v>146.875</v>
       </c>
       <c r="I138">
-        <v>3.1486</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
+        <v>3.1486000000000001</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -4408,28 +4460,28 @@
         <v>2854.69</v>
       </c>
       <c r="C139">
-        <v>9.39676053124062</v>
+        <v>9.3967605312406199</v>
       </c>
       <c r="D139">
-        <v>1.3271</v>
+        <v>1.3270999999999999</v>
       </c>
       <c r="E139">
-        <v>474.4503</v>
+        <v>474.45030000000003</v>
       </c>
       <c r="F139">
-        <v>2.7003</v>
+        <v>2.7002999999999999</v>
       </c>
       <c r="G139">
-        <v>18.484</v>
+        <v>18.484000000000002</v>
       </c>
       <c r="H139">
         <v>159.7841</v>
       </c>
       <c r="I139">
-        <v>3.9952</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
+        <v>3.9952000000000001</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -4440,25 +4492,25 @@
         <v>2.452108319570224</v>
       </c>
       <c r="D140">
-        <v>1.182</v>
+        <v>1.1819999999999999</v>
       </c>
       <c r="E140">
-        <v>349.4208</v>
+        <v>349.42079999999999</v>
       </c>
       <c r="F140">
         <v>2.8</v>
       </c>
       <c r="G140">
-        <v>20.472</v>
+        <v>20.472000000000001</v>
       </c>
       <c r="H140">
-        <v>145.3332</v>
+        <v>145.33320000000001</v>
       </c>
       <c r="I140">
-        <v>4.1962</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
+        <v>4.1962000000000002</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -4466,28 +4518,28 @@
         <v>2857.42</v>
       </c>
       <c r="C141">
-        <v>2.889434739068132</v>
+        <v>2.8894347390681321</v>
       </c>
       <c r="D141">
-        <v>0.828</v>
+        <v>0.82799999999999996</v>
       </c>
       <c r="E141">
-        <v>76.0643</v>
+        <v>76.064300000000003</v>
       </c>
       <c r="F141">
-        <v>2.7146</v>
+        <v>2.7145999999999999</v>
       </c>
       <c r="G141">
-        <v>27.412</v>
+        <v>27.411999999999999</v>
       </c>
       <c r="H141">
         <v>179.3475</v>
       </c>
       <c r="I141">
-        <v>3.0817</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9">
+        <v>3.0817000000000001</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -4495,28 +4547,28 @@
         <v>2857.76</v>
       </c>
       <c r="C142">
-        <v>1.948366879558039</v>
+        <v>1.9483668795580391</v>
       </c>
       <c r="D142">
-        <v>0.799</v>
+        <v>0.79900000000000004</v>
       </c>
       <c r="E142">
-        <v>41.3875</v>
+        <v>41.387500000000003</v>
       </c>
       <c r="F142">
-        <v>2.728</v>
+        <v>2.7280000000000002</v>
       </c>
       <c r="G142">
-        <v>27.168</v>
+        <v>27.167999999999999</v>
       </c>
       <c r="H142">
-        <v>178.2856</v>
+        <v>178.28559999999999</v>
       </c>
       <c r="I142">
-        <v>3.0008</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
+        <v>3.0007999999999999</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -4524,28 +4576,28 @@
         <v>2858.13</v>
       </c>
       <c r="C143">
-        <v>1.113499274660504</v>
+        <v>1.1134992746605039</v>
       </c>
       <c r="D143">
-        <v>0.758</v>
+        <v>0.75800000000000001</v>
       </c>
       <c r="E143">
-        <v>89.8747</v>
+        <v>89.874700000000004</v>
       </c>
       <c r="F143">
-        <v>2.6264</v>
+        <v>2.6263999999999998</v>
       </c>
       <c r="G143">
-        <v>23.664</v>
+        <v>23.664000000000001</v>
       </c>
       <c r="H143">
         <v>154.8074</v>
       </c>
       <c r="I143">
-        <v>3.4092</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9">
+        <v>3.4091999999999998</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -4553,19 +4605,19 @@
         <v>2859.79</v>
       </c>
       <c r="C144">
-        <v>3.156137509483614</v>
+        <v>3.1561375094836142</v>
       </c>
       <c r="D144">
-        <v>0.6042</v>
+        <v>0.60419999999999996</v>
       </c>
       <c r="E144">
-        <v>252.0671</v>
+        <v>252.06710000000001</v>
       </c>
       <c r="F144">
-        <v>2.723</v>
+        <v>2.7229999999999999</v>
       </c>
       <c r="G144">
-        <v>23.728</v>
+        <v>23.728000000000002</v>
       </c>
       <c r="H144">
         <v>151.6164</v>
@@ -4574,7 +4626,7 @@
         <v>4.1254</v>
       </c>
     </row>
-    <row r="145" spans="1:9">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -4582,16 +4634,16 @@
         <v>2860.32</v>
       </c>
       <c r="C145">
-        <v>0.6690649532692133</v>
+        <v>0.66906495326921334</v>
       </c>
       <c r="D145">
         <v>0.747</v>
       </c>
       <c r="E145">
-        <v>81.3522</v>
+        <v>81.352199999999996</v>
       </c>
       <c r="F145">
-        <v>2.7396</v>
+        <v>2.7395999999999998</v>
       </c>
       <c r="G145">
         <v>32.4</v>
@@ -4600,10 +4652,10 @@
         <v>177.2774</v>
       </c>
       <c r="I145">
-        <v>3.2524</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9">
+        <v>3.2524000000000002</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -4611,16 +4663,16 @@
         <v>2860.88</v>
       </c>
       <c r="C146">
-        <v>0.6720541064990291</v>
+        <v>0.67205410649902908</v>
       </c>
       <c r="D146">
-        <v>0.5758</v>
+        <v>0.57579999999999998</v>
       </c>
       <c r="E146">
-        <v>40.9875</v>
+        <v>40.987499999999997</v>
       </c>
       <c r="F146">
-        <v>2.7613</v>
+        <v>2.7612999999999999</v>
       </c>
       <c r="G146">
         <v>34.22</v>
@@ -4629,10 +4681,10 @@
         <v>177.6635</v>
       </c>
       <c r="I146">
-        <v>2.8696</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9">
+        <v>2.8696000000000002</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -4640,19 +4692,19 @@
         <v>2860.95</v>
       </c>
       <c r="C147">
-        <v>2.06404237287498</v>
+        <v>2.0640423728749799</v>
       </c>
       <c r="D147">
-        <v>0.6536</v>
+        <v>0.65359999999999996</v>
       </c>
       <c r="E147">
-        <v>37.0109</v>
+        <v>37.010899999999999</v>
       </c>
       <c r="F147">
         <v>2.7218</v>
       </c>
       <c r="G147">
-        <v>33.496</v>
+        <v>33.496000000000002</v>
       </c>
       <c r="H147">
         <v>180.761</v>
@@ -4661,7 +4713,7 @@
         <v>2.8106</v>
       </c>
     </row>
-    <row r="148" spans="1:9">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -4669,28 +4721,28 @@
         <v>2861.12</v>
       </c>
       <c r="C148">
-        <v>0.4751646284589358</v>
+        <v>0.47516462845893581</v>
       </c>
       <c r="D148">
-        <v>0.777</v>
+        <v>0.77700000000000002</v>
       </c>
       <c r="E148">
-        <v>38.1306</v>
+        <v>38.130600000000001</v>
       </c>
       <c r="F148">
-        <v>2.7308</v>
+        <v>2.7307999999999999</v>
       </c>
       <c r="G148">
-        <v>32.104</v>
+        <v>32.103999999999999</v>
       </c>
       <c r="H148">
-        <v>175.7728</v>
+        <v>175.77279999999999</v>
       </c>
       <c r="I148">
         <v>2.9998</v>
       </c>
     </row>
-    <row r="149" spans="1:9">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -4701,25 +4753,25 @@
         <v>1.802077607287808</v>
       </c>
       <c r="D149">
-        <v>0.777</v>
+        <v>0.77700000000000002</v>
       </c>
       <c r="E149">
-        <v>38.1306</v>
+        <v>38.130600000000001</v>
       </c>
       <c r="F149">
-        <v>2.7308</v>
+        <v>2.7307999999999999</v>
       </c>
       <c r="G149">
-        <v>32.104</v>
+        <v>32.103999999999999</v>
       </c>
       <c r="H149">
-        <v>175.7728</v>
+        <v>175.77279999999999</v>
       </c>
       <c r="I149">
         <v>2.9998</v>
       </c>
     </row>
-    <row r="150" spans="1:9">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -4730,25 +4782,25 @@
         <v>0.6960867120558103</v>
       </c>
       <c r="D150">
-        <v>0.715</v>
+        <v>0.71499999999999997</v>
       </c>
       <c r="E150">
-        <v>48.9632</v>
+        <v>48.963200000000001</v>
       </c>
       <c r="F150">
         <v>2.74</v>
       </c>
       <c r="G150">
-        <v>31.428</v>
+        <v>31.428000000000001</v>
       </c>
       <c r="H150">
-        <v>171.8436</v>
+        <v>171.84360000000001</v>
       </c>
       <c r="I150">
-        <v>3.1784</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9">
+        <v>3.1783999999999999</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -4756,28 +4808,28 @@
         <v>2861.68</v>
       </c>
       <c r="C151">
-        <v>0.3796507787957193</v>
+        <v>0.37965077879571929</v>
       </c>
       <c r="D151">
         <v>0.7006</v>
       </c>
       <c r="E151">
-        <v>87.9067</v>
+        <v>87.906700000000001</v>
       </c>
       <c r="F151">
         <v>2.6372</v>
       </c>
       <c r="G151">
-        <v>30.868</v>
+        <v>30.867999999999999</v>
       </c>
       <c r="H151">
-        <v>162.9052</v>
+        <v>162.90520000000001</v>
       </c>
       <c r="I151">
-        <v>3.5841</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9">
+        <v>3.5840999999999998</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -4785,28 +4837,28 @@
         <v>2862.87</v>
       </c>
       <c r="C152">
-        <v>0.5127580610842737</v>
+        <v>0.51275806108427369</v>
       </c>
       <c r="D152">
-        <v>0.7524</v>
+        <v>0.75239999999999996</v>
       </c>
       <c r="E152">
-        <v>83.7032</v>
+        <v>83.703199999999995</v>
       </c>
       <c r="F152">
-        <v>2.5573</v>
+        <v>2.5573000000000001</v>
       </c>
       <c r="G152">
-        <v>27.016</v>
+        <v>27.015999999999998</v>
       </c>
       <c r="H152">
-        <v>163.688</v>
+        <v>163.68799999999999</v>
       </c>
       <c r="I152">
-        <v>3.8094</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9">
+        <v>3.8094000000000001</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -4817,25 +4869,25 @@
         <v>0.9489346782711181</v>
       </c>
       <c r="D153">
-        <v>1.0554</v>
+        <v>1.0553999999999999</v>
       </c>
       <c r="E153">
-        <v>90.7105</v>
+        <v>90.710499999999996</v>
       </c>
       <c r="F153">
-        <v>2.5812</v>
+        <v>2.5811999999999999</v>
       </c>
       <c r="G153">
         <v>27.192</v>
       </c>
       <c r="H153">
-        <v>160.1058</v>
+        <v>160.10579999999999</v>
       </c>
       <c r="I153">
-        <v>3.7444</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9">
+        <v>3.7444000000000002</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -4843,28 +4895,28 @@
         <v>2863.61</v>
       </c>
       <c r="C154">
-        <v>0.593217447570453</v>
+        <v>0.59321744757045303</v>
       </c>
       <c r="D154">
-        <v>0.9313</v>
+        <v>0.93130000000000002</v>
       </c>
       <c r="E154">
-        <v>125.6582</v>
+        <v>125.65819999999999</v>
       </c>
       <c r="F154">
-        <v>2.6028</v>
+        <v>2.6027999999999998</v>
       </c>
       <c r="G154">
         <v>34.988</v>
       </c>
       <c r="H154">
-        <v>147.0398</v>
+        <v>147.03980000000001</v>
       </c>
       <c r="I154">
-        <v>4.1529</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9">
+        <v>4.1528999999999998</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -4875,13 +4927,13 @@
         <v>0.9801363893405558</v>
       </c>
       <c r="D155">
-        <v>0.736</v>
+        <v>0.73599999999999999</v>
       </c>
       <c r="E155">
         <v>12.8591</v>
       </c>
       <c r="F155">
-        <v>2.6608</v>
+        <v>2.6608000000000001</v>
       </c>
       <c r="G155">
         <v>137.376</v>
@@ -4890,10 +4942,10 @@
         <v>212.9256</v>
       </c>
       <c r="I155">
-        <v>2.233</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9">
+        <v>2.2330000000000001</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -4901,7 +4953,7 @@
         <v>2868.6</v>
       </c>
       <c r="C156">
-        <v>1.64114293282986</v>
+        <v>1.6411429328298599</v>
       </c>
       <c r="D156">
         <v>1.42</v>
@@ -4913,7 +4965,7 @@
         <v>2.7094</v>
       </c>
       <c r="G156">
-        <v>87.93600000000001</v>
+        <v>87.936000000000007</v>
       </c>
       <c r="H156">
         <v>174.2312</v>
@@ -4922,7 +4974,7 @@
         <v>2.766</v>
       </c>
     </row>
-    <row r="157" spans="1:9">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -4930,28 +4982,28 @@
         <v>2868.81</v>
       </c>
       <c r="C157">
-        <v>0.7572812345941041</v>
+        <v>0.75728123459410412</v>
       </c>
       <c r="D157">
-        <v>0.983</v>
+        <v>0.98299999999999998</v>
       </c>
       <c r="E157">
-        <v>19.7039</v>
+        <v>19.703900000000001</v>
       </c>
       <c r="F157">
-        <v>2.7036</v>
+        <v>2.7035999999999998</v>
       </c>
       <c r="G157">
-        <v>87.04000000000001</v>
+        <v>87.04</v>
       </c>
       <c r="H157">
-        <v>186.4612</v>
+        <v>186.46119999999999</v>
       </c>
       <c r="I157">
-        <v>2.5866</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9">
+        <v>2.5865999999999998</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -4965,10 +5017,10 @@
         <v>1.0463</v>
       </c>
       <c r="E158">
-        <v>22.0986</v>
+        <v>22.098600000000001</v>
       </c>
       <c r="F158">
-        <v>2.7823</v>
+        <v>2.7823000000000002</v>
       </c>
       <c r="G158">
         <v>82.756</v>
@@ -4977,10 +5029,10 @@
         <v>186.2328</v>
       </c>
       <c r="I158">
-        <v>2.7426</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9">
+        <v>2.7425999999999999</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -4988,28 +5040,28 @@
         <v>2870.04</v>
       </c>
       <c r="C159">
-        <v>0.9044912681960562</v>
+        <v>0.90449126819605619</v>
       </c>
       <c r="D159">
-        <v>1.0272</v>
+        <v>1.0271999999999999</v>
       </c>
       <c r="E159">
-        <v>33.7574</v>
+        <v>33.757399999999997</v>
       </c>
       <c r="F159">
         <v>2.6677</v>
       </c>
       <c r="G159">
-        <v>70.93600000000001</v>
+        <v>70.936000000000007</v>
       </c>
       <c r="H159">
         <v>173.9502</v>
       </c>
       <c r="I159">
-        <v>3.0515</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9">
+        <v>3.0514999999999999</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -5017,28 +5069,28 @@
         <v>2870.69</v>
       </c>
       <c r="C160">
-        <v>0.8938609369599388</v>
+        <v>0.89386093695993885</v>
       </c>
       <c r="D160">
-        <v>1.205</v>
+        <v>1.2050000000000001</v>
       </c>
       <c r="E160">
-        <v>33.8468</v>
+        <v>33.846800000000002</v>
       </c>
       <c r="F160">
         <v>2.7058</v>
       </c>
       <c r="G160">
-        <v>70.40000000000001</v>
+        <v>70.400000000000006</v>
       </c>
       <c r="H160">
         <v>172.4417</v>
       </c>
       <c r="I160">
-        <v>2.9749</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9">
+        <v>2.9748999999999999</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -5052,10 +5104,10 @@
         <v>0.747</v>
       </c>
       <c r="E161">
-        <v>27.161</v>
+        <v>27.161000000000001</v>
       </c>
       <c r="F161">
-        <v>2.7038</v>
+        <v>2.7038000000000002</v>
       </c>
       <c r="G161">
         <v>71</v>
@@ -5067,7 +5119,7 @@
         <v>2.8544</v>
       </c>
     </row>
-    <row r="162" spans="1:9">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -5075,28 +5127,28 @@
         <v>2871.74</v>
       </c>
       <c r="C162">
-        <v>0.7607993283201696</v>
+        <v>0.76079932832016961</v>
       </c>
       <c r="D162">
         <v>1.365</v>
       </c>
       <c r="E162">
-        <v>35.7339</v>
+        <v>35.733899999999998</v>
       </c>
       <c r="F162">
         <v>2.66</v>
       </c>
       <c r="G162">
-        <v>72.224</v>
+        <v>72.224000000000004</v>
       </c>
       <c r="H162">
         <v>177.0686</v>
       </c>
       <c r="I162">
-        <v>2.8864</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9">
+        <v>2.8864000000000001</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -5104,28 +5156,28 @@
         <v>2872</v>
       </c>
       <c r="C163">
-        <v>0.4773535114595986</v>
+        <v>0.47735351145959859</v>
       </c>
       <c r="D163">
-        <v>1.0875</v>
+        <v>1.0874999999999999</v>
       </c>
       <c r="E163">
-        <v>47.9855</v>
+        <v>47.985500000000002</v>
       </c>
       <c r="F163">
         <v>2.661</v>
       </c>
       <c r="G163">
-        <v>73.792</v>
+        <v>73.792000000000002</v>
       </c>
       <c r="H163">
-        <v>170.5876</v>
+        <v>170.58760000000001</v>
       </c>
       <c r="I163">
-        <v>2.989</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9">
+        <v>2.9889999999999999</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -5139,22 +5191,22 @@
         <v>1.0202</v>
       </c>
       <c r="E164">
-        <v>50.3867</v>
+        <v>50.386699999999998</v>
       </c>
       <c r="F164">
-        <v>2.683</v>
+        <v>2.6829999999999998</v>
       </c>
       <c r="G164">
-        <v>75.048</v>
+        <v>75.048000000000002</v>
       </c>
       <c r="H164">
-        <v>167.7524</v>
+        <v>167.75239999999999</v>
       </c>
       <c r="I164">
-        <v>3.0539</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9">
+        <v>3.0539000000000001</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -5162,28 +5214,28 @@
         <v>2872.57</v>
       </c>
       <c r="C165">
-        <v>0.5562740761910414</v>
+        <v>0.55627407619104141</v>
       </c>
       <c r="D165">
-        <v>1.4202</v>
+        <v>1.4201999999999999</v>
       </c>
       <c r="E165">
-        <v>25.3098</v>
+        <v>25.309799999999999</v>
       </c>
       <c r="F165">
-        <v>2.6988</v>
+        <v>2.6987999999999999</v>
       </c>
       <c r="G165">
-        <v>80.47199999999989</v>
+        <v>80.471999999999895</v>
       </c>
       <c r="H165">
-        <v>173.1904</v>
+        <v>173.19040000000001</v>
       </c>
       <c r="I165">
         <v>2.9598</v>
       </c>
     </row>
-    <row r="166" spans="1:9">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -5194,25 +5246,25 @@
         <v>1.953513051990718</v>
       </c>
       <c r="D166">
-        <v>0.9611</v>
+        <v>0.96109999999999995</v>
       </c>
       <c r="E166">
         <v>20.9238</v>
       </c>
       <c r="F166">
-        <v>2.6808</v>
+        <v>2.6808000000000001</v>
       </c>
       <c r="G166">
-        <v>78.9839999999999</v>
+        <v>78.983999999999895</v>
       </c>
       <c r="H166">
-        <v>177.0116</v>
+        <v>177.01159999999999</v>
       </c>
       <c r="I166">
-        <v>2.7772</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9">
+        <v>2.7772000000000001</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -5220,28 +5272,28 @@
         <v>2873.31</v>
       </c>
       <c r="C167">
-        <v>0.8595243790943694</v>
+        <v>0.85952437909436941</v>
       </c>
       <c r="D167">
-        <v>0.8794999999999999</v>
+        <v>0.87949999999999995</v>
       </c>
       <c r="E167">
         <v>23.055</v>
       </c>
       <c r="F167">
-        <v>2.6666</v>
+        <v>2.6665999999999999</v>
       </c>
       <c r="G167">
-        <v>77.008</v>
+        <v>77.007999999999996</v>
       </c>
       <c r="H167">
-        <v>176.4519</v>
+        <v>176.45189999999999</v>
       </c>
       <c r="I167">
         <v>2.8226</v>
       </c>
     </row>
-    <row r="168" spans="1:9">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -5249,28 +5301,28 @@
         <v>2873.5</v>
       </c>
       <c r="C168">
-        <v>0.7720669247610431</v>
+        <v>0.77206692476104311</v>
       </c>
       <c r="D168">
-        <v>0.8415</v>
+        <v>0.84150000000000003</v>
       </c>
       <c r="E168">
-        <v>27.6656</v>
+        <v>27.665600000000001</v>
       </c>
       <c r="F168">
-        <v>2.6716</v>
+        <v>2.6716000000000002</v>
       </c>
       <c r="G168">
-        <v>72.932</v>
+        <v>72.932000000000002</v>
       </c>
       <c r="H168">
-        <v>175.9969</v>
+        <v>175.99690000000001</v>
       </c>
       <c r="I168">
-        <v>2.8347</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9">
+        <v>2.8347000000000002</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -5278,28 +5330,28 @@
         <v>2873.95</v>
       </c>
       <c r="C169">
-        <v>0.6252752919556335</v>
+        <v>0.62527529195563347</v>
       </c>
       <c r="D169">
-        <v>0.761</v>
+        <v>0.76100000000000001</v>
       </c>
       <c r="E169">
-        <v>30.2452</v>
+        <v>30.245200000000001</v>
       </c>
       <c r="F169">
-        <v>2.705</v>
+        <v>2.7050000000000001</v>
       </c>
       <c r="G169">
-        <v>63.504</v>
+        <v>63.503999999999998</v>
       </c>
       <c r="H169">
         <v>169.65</v>
       </c>
       <c r="I169">
-        <v>2.878</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9">
+        <v>2.8780000000000001</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -5307,28 +5359,28 @@
         <v>2874.34</v>
       </c>
       <c r="C170">
-        <v>0.90863953062924</v>
+        <v>0.90863953062923997</v>
       </c>
       <c r="D170">
-        <v>0.8177</v>
+        <v>0.81769999999999998</v>
       </c>
       <c r="E170">
-        <v>41.9526</v>
+        <v>41.952599999999997</v>
       </c>
       <c r="F170">
-        <v>2.7044</v>
+        <v>2.7044000000000001</v>
       </c>
       <c r="G170">
-        <v>55.928</v>
+        <v>55.927999999999997</v>
       </c>
       <c r="H170">
         <v>172.7064</v>
       </c>
       <c r="I170">
-        <v>2.8382</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9">
+        <v>2.8382000000000001</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -5336,28 +5388,28 @@
         <v>2874.68</v>
       </c>
       <c r="C171">
-        <v>0.7949009766201831</v>
+        <v>0.79490097662018311</v>
       </c>
       <c r="D171">
-        <v>0.8005</v>
+        <v>0.80049999999999999</v>
       </c>
       <c r="E171">
-        <v>45.6202</v>
+        <v>45.620199999999997</v>
       </c>
       <c r="F171">
-        <v>2.7674</v>
+        <v>2.7673999999999999</v>
       </c>
       <c r="G171">
         <v>51.18</v>
       </c>
       <c r="H171">
-        <v>176.1929</v>
+        <v>176.19290000000001</v>
       </c>
       <c r="I171">
-        <v>3.0697</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9">
+        <v>3.0697000000000001</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -5365,28 +5417,28 @@
         <v>2874.92</v>
       </c>
       <c r="C172">
-        <v>0.9732498631795755</v>
+        <v>0.97324986317957551</v>
       </c>
       <c r="D172">
-        <v>0.798</v>
+        <v>0.79800000000000004</v>
       </c>
       <c r="E172">
         <v>42.5486</v>
       </c>
       <c r="F172">
-        <v>2.7428</v>
+        <v>2.7427999999999999</v>
       </c>
       <c r="G172">
-        <v>47.432</v>
+        <v>47.432000000000002</v>
       </c>
       <c r="H172">
         <v>172.8914</v>
       </c>
       <c r="I172">
-        <v>3.0224</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9">
+        <v>3.0224000000000002</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -5394,19 +5446,19 @@
         <v>2875.06</v>
       </c>
       <c r="C173">
-        <v>0.878495394009873</v>
+        <v>0.87849539400987298</v>
       </c>
       <c r="D173">
-        <v>0.9893</v>
+        <v>0.98929999999999996</v>
       </c>
       <c r="E173">
-        <v>45.2002</v>
+        <v>45.200200000000002</v>
       </c>
       <c r="F173">
         <v>2.7073</v>
       </c>
       <c r="G173">
-        <v>46.416</v>
+        <v>46.415999999999997</v>
       </c>
       <c r="H173">
         <v>174.7671</v>
@@ -5415,7 +5467,7 @@
         <v>3.02</v>
       </c>
     </row>
-    <row r="174" spans="1:9">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -5423,28 +5475,28 @@
         <v>2876.16</v>
       </c>
       <c r="C174">
-        <v>0.5678822049464398</v>
+        <v>0.56788220494643982</v>
       </c>
       <c r="D174">
-        <v>0.9413</v>
+        <v>0.94130000000000003</v>
       </c>
       <c r="E174">
-        <v>47.0087</v>
+        <v>47.008699999999997</v>
       </c>
       <c r="F174">
-        <v>2.6866</v>
+        <v>2.6865999999999999</v>
       </c>
       <c r="G174">
-        <v>40.072</v>
+        <v>40.072000000000003</v>
       </c>
       <c r="H174">
         <v>164.5266</v>
       </c>
       <c r="I174">
-        <v>3.0704</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9">
+        <v>3.0703999999999998</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -5452,19 +5504,19 @@
         <v>2876.3</v>
       </c>
       <c r="C175">
-        <v>0.5748558005170551</v>
+        <v>0.57485580051705509</v>
       </c>
       <c r="D175">
-        <v>0.7596000000000001</v>
+        <v>0.75960000000000005</v>
       </c>
       <c r="E175">
-        <v>46.7921</v>
+        <v>46.792099999999998</v>
       </c>
       <c r="F175">
-        <v>2.6926</v>
+        <v>2.6926000000000001</v>
       </c>
       <c r="G175">
-        <v>39.092</v>
+        <v>39.091999999999999</v>
       </c>
       <c r="H175">
         <v>165.6353</v>
@@ -5473,7 +5525,7 @@
         <v>3.0326</v>
       </c>
     </row>
-    <row r="176" spans="1:9">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -5481,28 +5533,28 @@
         <v>2876.58</v>
       </c>
       <c r="C176">
-        <v>0.2567145792418352</v>
+        <v>0.25671457924183522</v>
       </c>
       <c r="D176">
-        <v>1.1265</v>
+        <v>1.1265000000000001</v>
       </c>
       <c r="E176">
-        <v>48.447</v>
+        <v>48.447000000000003</v>
       </c>
       <c r="F176">
-        <v>2.7592</v>
+        <v>2.7591999999999999</v>
       </c>
       <c r="G176">
-        <v>34.864</v>
+        <v>34.863999999999997</v>
       </c>
       <c r="H176">
-        <v>164.3286</v>
+        <v>164.32859999999999</v>
       </c>
       <c r="I176">
         <v>3.1126</v>
       </c>
     </row>
-    <row r="177" spans="1:9">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -5510,13 +5562,13 @@
         <v>2877.04</v>
       </c>
       <c r="C177">
-        <v>2.393239746334931</v>
+        <v>2.3932397463349311</v>
       </c>
       <c r="D177">
         <v>1.355</v>
       </c>
       <c r="E177">
-        <v>99.1635</v>
+        <v>99.163499999999999</v>
       </c>
       <c r="F177">
         <v>2.7839</v>
@@ -5531,7 +5583,7 @@
         <v>3.4398</v>
       </c>
     </row>
-    <row r="178" spans="1:9">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -5539,28 +5591,28 @@
         <v>2877.24</v>
       </c>
       <c r="C178">
-        <v>0.7823710962525198</v>
+        <v>0.78237109625251977</v>
       </c>
       <c r="D178">
-        <v>1.2711</v>
+        <v>1.2710999999999999</v>
       </c>
       <c r="E178">
         <v>143.6995</v>
       </c>
       <c r="F178">
-        <v>2.8049</v>
+        <v>2.8048999999999999</v>
       </c>
       <c r="G178">
-        <v>25.056</v>
+        <v>25.056000000000001</v>
       </c>
       <c r="H178">
-        <v>163.3113</v>
+        <v>163.31129999999999</v>
       </c>
       <c r="I178">
         <v>3.5966</v>
       </c>
     </row>
-    <row r="179" spans="1:9">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -5568,7 +5620,7 @@
         <v>2877.54</v>
       </c>
       <c r="C179">
-        <v>0.8545004391292186</v>
+        <v>0.85450043912921858</v>
       </c>
       <c r="D179">
         <v>0.629</v>
@@ -5577,10 +5629,10 @@
         <v>233.2679</v>
       </c>
       <c r="F179">
-        <v>2.7472</v>
+        <v>2.7471999999999999</v>
       </c>
       <c r="G179">
-        <v>24.264</v>
+        <v>24.263999999999999</v>
       </c>
       <c r="H179">
         <v>154.304</v>
@@ -5589,7 +5641,7 @@
         <v>3.9512</v>
       </c>
     </row>
-    <row r="180" spans="1:9">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -5597,28 +5649,28 @@
         <v>2878.64</v>
       </c>
       <c r="C180">
-        <v>1.056352682584167</v>
+        <v>1.0563526825841669</v>
       </c>
       <c r="D180">
-        <v>1.3175</v>
+        <v>1.3174999999999999</v>
       </c>
       <c r="E180">
         <v>157.8109</v>
       </c>
       <c r="F180">
-        <v>2.7141</v>
+        <v>2.7141000000000002</v>
       </c>
       <c r="G180">
-        <v>20.236</v>
+        <v>20.236000000000001</v>
       </c>
       <c r="H180">
-        <v>167.1735</v>
+        <v>167.17349999999999</v>
       </c>
       <c r="I180">
         <v>3.5621</v>
       </c>
     </row>
-    <row r="181" spans="1:9">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -5626,7 +5678,7 @@
         <v>2879.41</v>
       </c>
       <c r="C181">
-        <v>5.241759754755789</v>
+        <v>5.2417597547557886</v>
       </c>
       <c r="D181">
         <v>1.345</v>
@@ -5635,19 +5687,19 @@
         <v>1476.7263</v>
       </c>
       <c r="F181">
-        <v>2.7772</v>
+        <v>2.7772000000000001</v>
       </c>
       <c r="G181">
         <v>15.192</v>
       </c>
       <c r="H181">
-        <v>162.9278</v>
+        <v>162.92779999999999</v>
       </c>
       <c r="I181">
-        <v>4.3442</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9">
+        <v>4.3441999999999998</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -5655,13 +5707,13 @@
         <v>2880.33</v>
       </c>
       <c r="C182">
-        <v>2.159035435674922</v>
+        <v>2.1590354356749222</v>
       </c>
       <c r="D182">
-        <v>0.913</v>
+        <v>0.91300000000000003</v>
       </c>
       <c r="E182">
-        <v>214.2262</v>
+        <v>214.22620000000001</v>
       </c>
       <c r="F182">
         <v>2.6656</v>
@@ -5670,13 +5722,13 @@
         <v>16.712</v>
       </c>
       <c r="H182">
-        <v>166.3778</v>
+        <v>166.37780000000001</v>
       </c>
       <c r="I182">
         <v>3.6978</v>
       </c>
     </row>
-    <row r="183" spans="1:9">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -5684,16 +5736,16 @@
         <v>2931.16</v>
       </c>
       <c r="C183">
-        <v>3.764557995794952</v>
+        <v>3.7645579957949522</v>
       </c>
       <c r="D183">
-        <v>1.12</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="E183">
-        <v>141.0399</v>
+        <v>141.03989999999999</v>
       </c>
       <c r="F183">
-        <v>2.7472</v>
+        <v>2.7471999999999999</v>
       </c>
       <c r="G183">
         <v>14</v>
@@ -5702,10 +5754,10 @@
         <v>182.1936</v>
       </c>
       <c r="I183">
-        <v>3.2992</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9">
+        <v>3.2991999999999999</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -5716,13 +5768,13 @@
         <v>3.820375157379178</v>
       </c>
       <c r="D184">
-        <v>0.6364</v>
+        <v>0.63639999999999997</v>
       </c>
       <c r="E184">
-        <v>237.4843</v>
+        <v>237.48429999999999</v>
       </c>
       <c r="F184">
-        <v>2.7854</v>
+        <v>2.7854000000000001</v>
       </c>
       <c r="G184">
         <v>13.128</v>
@@ -5731,10 +5783,10 @@
         <v>165.1506</v>
       </c>
       <c r="I184">
-        <v>3.776</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9">
+        <v>3.7759999999999998</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -5742,28 +5794,28 @@
         <v>2940.02</v>
       </c>
       <c r="C185">
-        <v>2.261893837741125</v>
+        <v>2.2618938377411251</v>
       </c>
       <c r="D185">
-        <v>0.6685</v>
+        <v>0.66849999999999998</v>
       </c>
       <c r="E185">
-        <v>180.4951</v>
+        <v>180.49510000000001</v>
       </c>
       <c r="F185">
-        <v>2.739</v>
+        <v>2.7389999999999999</v>
       </c>
       <c r="G185">
-        <v>16.528</v>
+        <v>16.527999999999999</v>
       </c>
       <c r="H185">
         <v>173.64</v>
       </c>
       <c r="I185">
-        <v>3.5536</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9">
+        <v>3.5535999999999999</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -5774,25 +5826,25 @@
         <v>2.138734092829905</v>
       </c>
       <c r="D186">
-        <v>0.699</v>
+        <v>0.69899999999999995</v>
       </c>
       <c r="E186">
         <v>274.714</v>
       </c>
       <c r="F186">
-        <v>2.7558</v>
+        <v>2.7557999999999998</v>
       </c>
       <c r="G186">
-        <v>12.296</v>
+        <v>12.295999999999999</v>
       </c>
       <c r="H186">
         <v>161.5616</v>
       </c>
       <c r="I186">
-        <v>3.8136</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9">
+        <v>3.8136000000000001</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -5800,28 +5852,28 @@
         <v>2944.44</v>
       </c>
       <c r="C187">
-        <v>3.333391780870549</v>
+        <v>3.3333917808705489</v>
       </c>
       <c r="D187">
-        <v>0.7821</v>
+        <v>0.78210000000000002</v>
       </c>
       <c r="E187">
-        <v>464.038</v>
+        <v>464.03800000000001</v>
       </c>
       <c r="F187">
-        <v>2.7869</v>
+        <v>2.7869000000000002</v>
       </c>
       <c r="G187">
         <v>12.9</v>
       </c>
       <c r="H187">
-        <v>151.9472</v>
+        <v>151.94720000000001</v>
       </c>
       <c r="I187">
-        <v>3.7863</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9">
+        <v>3.7863000000000002</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -5829,13 +5881,13 @@
         <v>2950.44</v>
       </c>
       <c r="C188">
-        <v>0.4431522215844109</v>
+        <v>0.44315222158441092</v>
       </c>
       <c r="D188">
-        <v>0.7075</v>
+        <v>0.70750000000000002</v>
       </c>
       <c r="E188">
-        <v>216.0533</v>
+        <v>216.05330000000001</v>
       </c>
       <c r="F188">
         <v>2.8388</v>
@@ -5847,10 +5899,10 @@
         <v>167.4913</v>
       </c>
       <c r="I188">
-        <v>3.7327</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9">
+        <v>3.7326999999999999</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -5858,28 +5910,28 @@
         <v>2950.53</v>
       </c>
       <c r="C189">
-        <v>2.18453912563789</v>
+        <v>2.1845391256378899</v>
       </c>
       <c r="D189">
-        <v>0.893</v>
+        <v>0.89300000000000002</v>
       </c>
       <c r="E189">
-        <v>245.484</v>
+        <v>245.48400000000001</v>
       </c>
       <c r="F189">
-        <v>2.7968</v>
+        <v>2.7968000000000002</v>
       </c>
       <c r="G189">
         <v>15.032</v>
       </c>
       <c r="H189">
-        <v>166.0818</v>
+        <v>166.08179999999999</v>
       </c>
       <c r="I189">
-        <v>3.8572</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9">
+        <v>3.8572000000000002</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -5887,13 +5939,13 @@
         <v>2953.08</v>
       </c>
       <c r="C190">
-        <v>5.323923869252609</v>
+        <v>5.3239238692526092</v>
       </c>
       <c r="D190">
-        <v>0.8214</v>
+        <v>0.82140000000000002</v>
       </c>
       <c r="E190">
-        <v>309.418</v>
+        <v>309.41800000000001</v>
       </c>
       <c r="F190">
         <v>2.6873</v>
@@ -5902,13 +5954,13 @@
         <v>12.244</v>
       </c>
       <c r="H190">
-        <v>162.1314</v>
+        <v>162.13140000000001</v>
       </c>
       <c r="I190">
-        <v>4.0356</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9">
+        <v>4.0355999999999996</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -5916,28 +5968,28 @@
         <v>2956.92</v>
       </c>
       <c r="C191">
-        <v>2.806609498172361</v>
+        <v>2.8066094981723611</v>
       </c>
       <c r="D191">
-        <v>1.207</v>
+        <v>1.2070000000000001</v>
       </c>
       <c r="E191">
-        <v>1824.3293</v>
+        <v>1824.3293000000001</v>
       </c>
       <c r="F191">
-        <v>2.3412</v>
+        <v>2.3412000000000002</v>
       </c>
       <c r="G191">
-        <v>47.496</v>
+        <v>47.496000000000002</v>
       </c>
       <c r="H191">
-        <v>136.5688</v>
+        <v>136.56880000000001</v>
       </c>
       <c r="I191">
         <v>3.093</v>
       </c>
     </row>
-    <row r="192" spans="1:9">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -5945,7 +5997,7 @@
         <v>2969.08</v>
       </c>
       <c r="C192">
-        <v>0.5323830015660596</v>
+        <v>0.53238300156605955</v>
       </c>
       <c r="D192">
         <v>1.0763</v>
@@ -5954,19 +6006,19 @@
         <v>144.3073</v>
       </c>
       <c r="F192">
-        <v>2.683</v>
+        <v>2.6829999999999998</v>
       </c>
       <c r="G192">
-        <v>14.364</v>
+        <v>14.364000000000001</v>
       </c>
       <c r="H192">
-        <v>157.5432</v>
+        <v>157.54320000000001</v>
       </c>
       <c r="I192">
         <v>3.5242</v>
       </c>
     </row>
-    <row r="193" spans="1:9">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -5977,25 +6029,25 @@
         <v>2.995464056671544</v>
       </c>
       <c r="D193">
-        <v>0.598</v>
+        <v>0.59799999999999998</v>
       </c>
       <c r="E193">
-        <v>109.6663</v>
+        <v>109.66630000000001</v>
       </c>
       <c r="F193">
-        <v>2.7204</v>
+        <v>2.7204000000000002</v>
       </c>
       <c r="G193">
         <v>17.512</v>
       </c>
       <c r="H193">
-        <v>169.695</v>
+        <v>169.69499999999999</v>
       </c>
       <c r="I193">
-        <v>3.2834</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9">
+        <v>3.2833999999999999</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -6006,25 +6058,25 @@
         <v>9.276302547752783</v>
       </c>
       <c r="D194">
-        <v>0.598</v>
+        <v>0.59799999999999998</v>
       </c>
       <c r="E194">
-        <v>109.6663</v>
+        <v>109.66630000000001</v>
       </c>
       <c r="F194">
-        <v>2.7204</v>
+        <v>2.7204000000000002</v>
       </c>
       <c r="G194">
         <v>17.512</v>
       </c>
       <c r="H194">
-        <v>169.695</v>
+        <v>169.69499999999999</v>
       </c>
       <c r="I194">
-        <v>3.2834</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9">
+        <v>3.2833999999999999</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -6032,16 +6084,16 @@
         <v>2970.18</v>
       </c>
       <c r="C195">
-        <v>0.3600077494391167</v>
+        <v>0.36000774943911668</v>
       </c>
       <c r="D195">
         <v>0.5766</v>
       </c>
       <c r="E195">
-        <v>180.9515</v>
+        <v>180.95150000000001</v>
       </c>
       <c r="F195">
-        <v>2.7132</v>
+        <v>2.7132000000000001</v>
       </c>
       <c r="G195">
         <v>14.36</v>
@@ -6053,7 +6105,7 @@
         <v>3.5972</v>
       </c>
     </row>
-    <row r="196" spans="1:9">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -6061,13 +6113,13 @@
         <v>2970.42</v>
       </c>
       <c r="C196">
-        <v>3.683208867824465</v>
+        <v>3.6832088678244652</v>
       </c>
       <c r="D196">
-        <v>0.592</v>
+        <v>0.59199999999999997</v>
       </c>
       <c r="E196">
-        <v>194.0749</v>
+        <v>194.07490000000001</v>
       </c>
       <c r="F196">
         <v>2.8001</v>
@@ -6076,13 +6128,13 @@
         <v>14.016</v>
       </c>
       <c r="H196">
-        <v>180.5073</v>
+        <v>180.50729999999999</v>
       </c>
       <c r="I196">
-        <v>3.7813</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9">
+        <v>3.7812999999999999</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -6093,7 +6145,7 @@
         <v>4.539045136222791</v>
       </c>
       <c r="D197">
-        <v>0.9381</v>
+        <v>0.93810000000000004</v>
       </c>
       <c r="E197">
         <v>149.1516</v>
@@ -6105,13 +6157,13 @@
         <v>14.48</v>
       </c>
       <c r="H197">
-        <v>164.9747</v>
+        <v>164.97470000000001</v>
       </c>
       <c r="I197">
         <v>3.8611</v>
       </c>
     </row>
-    <row r="198" spans="1:9">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -6119,10 +6171,10 @@
         <v>2970.88</v>
       </c>
       <c r="C198">
-        <v>2.836128511086743</v>
+        <v>2.8361285110867431</v>
       </c>
       <c r="D198">
-        <v>0.9381</v>
+        <v>0.93810000000000004</v>
       </c>
       <c r="E198">
         <v>149.1516</v>
@@ -6134,13 +6186,13 @@
         <v>14.48</v>
       </c>
       <c r="H198">
-        <v>164.9747</v>
+        <v>164.97470000000001</v>
       </c>
       <c r="I198">
         <v>3.8611</v>
       </c>
     </row>
-    <row r="199" spans="1:9">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -6151,25 +6203,25 @@
         <v>3.822633434969652</v>
       </c>
       <c r="D199">
-        <v>1.0075</v>
+        <v>1.0075000000000001</v>
       </c>
       <c r="E199">
-        <v>136.3071</v>
+        <v>136.30709999999999</v>
       </c>
       <c r="F199">
-        <v>2.8372</v>
+        <v>2.8372000000000002</v>
       </c>
       <c r="G199">
-        <v>14.832</v>
+        <v>14.832000000000001</v>
       </c>
       <c r="H199">
         <v>162.0942</v>
       </c>
       <c r="I199">
-        <v>3.9146</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9">
+        <v>3.9146000000000001</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -6177,28 +6229,28 @@
         <v>2971.56</v>
       </c>
       <c r="C200">
-        <v>9.033422285095876</v>
+        <v>9.0334222850958756</v>
       </c>
       <c r="D200">
-        <v>0.7413</v>
+        <v>0.74129999999999996</v>
       </c>
       <c r="E200">
-        <v>138.9806</v>
+        <v>138.98060000000001</v>
       </c>
       <c r="F200">
-        <v>2.749</v>
+        <v>2.7490000000000001</v>
       </c>
       <c r="G200">
         <v>17.544</v>
       </c>
       <c r="H200">
-        <v>153.5236</v>
+        <v>153.52359999999999</v>
       </c>
       <c r="I200">
         <v>4.1692</v>
       </c>
     </row>
-    <row r="201" spans="1:9">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -6206,28 +6258,28 @@
         <v>2972.32</v>
       </c>
       <c r="C201">
-        <v>3.34284056314523</v>
+        <v>3.3428405631452298</v>
       </c>
       <c r="D201">
-        <v>0.716</v>
+        <v>0.71599999999999997</v>
       </c>
       <c r="E201">
-        <v>230.0749</v>
+        <v>230.07490000000001</v>
       </c>
       <c r="F201">
-        <v>2.8456</v>
+        <v>2.8456000000000001</v>
       </c>
       <c r="G201">
         <v>14.456</v>
       </c>
       <c r="H201">
-        <v>154.849</v>
+        <v>154.84899999999999</v>
       </c>
       <c r="I201">
-        <v>4.1312</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9">
+        <v>4.1311999999999998</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -6235,28 +6287,28 @@
         <v>2974</v>
       </c>
       <c r="C202">
-        <v>4.036688202391813</v>
+        <v>4.0366882023918134</v>
       </c>
       <c r="D202">
-        <v>0.6850000000000001</v>
+        <v>0.68500000000000005</v>
       </c>
       <c r="E202">
-        <v>117.8226</v>
+        <v>117.82259999999999</v>
       </c>
       <c r="F202">
-        <v>2.7676</v>
+        <v>2.7675999999999998</v>
       </c>
       <c r="G202">
-        <v>20.928</v>
+        <v>20.928000000000001</v>
       </c>
       <c r="H202">
         <v>159.7784</v>
       </c>
       <c r="I202">
-        <v>3.6638</v>
-      </c>
-    </row>
-    <row r="203" spans="1:9">
+        <v>3.6638000000000002</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -6264,28 +6316,28 @@
         <v>2976.38</v>
       </c>
       <c r="C203">
-        <v>6.289721317404216</v>
+        <v>6.2897213174042159</v>
       </c>
       <c r="D203">
-        <v>0.574</v>
+        <v>0.57399999999999995</v>
       </c>
       <c r="E203">
-        <v>49.465</v>
+        <v>49.465000000000003</v>
       </c>
       <c r="F203">
-        <v>2.7226</v>
+        <v>2.7225999999999999</v>
       </c>
       <c r="G203">
         <v>42.68</v>
       </c>
       <c r="H203">
-        <v>178.764</v>
+        <v>178.76400000000001</v>
       </c>
       <c r="I203">
-        <v>3.0954</v>
-      </c>
-    </row>
-    <row r="204" spans="1:9">
+        <v>3.0954000000000002</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -6293,28 +6345,28 @@
         <v>2976.45</v>
       </c>
       <c r="C204">
-        <v>4.937235967056231</v>
+        <v>4.9372359670562309</v>
       </c>
       <c r="D204">
-        <v>0.7193000000000001</v>
+        <v>0.71930000000000005</v>
       </c>
       <c r="E204">
-        <v>68.2338</v>
+        <v>68.233800000000002</v>
       </c>
       <c r="F204">
-        <v>2.7463</v>
+        <v>2.7463000000000002</v>
       </c>
       <c r="G204">
-        <v>39.572</v>
+        <v>39.572000000000003</v>
       </c>
       <c r="H204">
-        <v>173.1778</v>
+        <v>173.17779999999999</v>
       </c>
       <c r="I204">
         <v>3.2921</v>
       </c>
     </row>
-    <row r="205" spans="1:9">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -6322,28 +6374,28 @@
         <v>2976.5</v>
       </c>
       <c r="C205">
-        <v>3.644406669215935</v>
+        <v>3.6444066692159351</v>
       </c>
       <c r="D205">
-        <v>0.7193000000000001</v>
+        <v>0.71930000000000005</v>
       </c>
       <c r="E205">
-        <v>68.2338</v>
+        <v>68.233800000000002</v>
       </c>
       <c r="F205">
-        <v>2.7463</v>
+        <v>2.7463000000000002</v>
       </c>
       <c r="G205">
-        <v>39.572</v>
+        <v>39.572000000000003</v>
       </c>
       <c r="H205">
-        <v>173.1778</v>
+        <v>173.17779999999999</v>
       </c>
       <c r="I205">
         <v>3.2921</v>
       </c>
     </row>
-    <row r="206" spans="1:9">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>204</v>
       </c>
@@ -6351,28 +6403,28 @@
         <v>2976.55</v>
       </c>
       <c r="C206">
-        <v>2.524285128526279</v>
+        <v>2.5242851285262788</v>
       </c>
       <c r="D206">
-        <v>0.8646</v>
+        <v>0.86460000000000004</v>
       </c>
       <c r="E206">
-        <v>87.0026</v>
+        <v>87.002600000000001</v>
       </c>
       <c r="F206">
-        <v>2.7318</v>
+        <v>2.7317999999999998</v>
       </c>
       <c r="G206">
-        <v>36.464</v>
+        <v>36.463999999999999</v>
       </c>
       <c r="H206">
-        <v>166.9808</v>
+        <v>166.98079999999999</v>
       </c>
       <c r="I206">
-        <v>3.4456</v>
-      </c>
-    </row>
-    <row r="207" spans="1:9">
+        <v>3.4456000000000002</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>205</v>
       </c>
@@ -6380,28 +6432,28 @@
         <v>2976.9</v>
       </c>
       <c r="C207">
-        <v>5.88747495206469</v>
+        <v>5.8874749520646903</v>
       </c>
       <c r="D207">
-        <v>0.8955</v>
+        <v>0.89549999999999996</v>
       </c>
       <c r="E207">
-        <v>131.5567</v>
+        <v>131.55670000000001</v>
       </c>
       <c r="F207">
-        <v>2.7775</v>
+        <v>2.7774999999999999</v>
       </c>
       <c r="G207">
         <v>28.24</v>
       </c>
       <c r="H207">
-        <v>153.2846</v>
+        <v>153.28460000000001</v>
       </c>
       <c r="I207">
         <v>3.5667</v>
       </c>
     </row>
-    <row r="208" spans="1:9">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -6409,28 +6461,28 @@
         <v>2976.95</v>
       </c>
       <c r="C208">
-        <v>8.351520182713282</v>
+        <v>8.3515201827132817</v>
       </c>
       <c r="D208">
         <v>0.747</v>
       </c>
       <c r="E208">
-        <v>141.981</v>
+        <v>141.98099999999999</v>
       </c>
       <c r="F208">
-        <v>2.795</v>
+        <v>2.7949999999999999</v>
       </c>
       <c r="G208">
-        <v>25.992</v>
+        <v>25.992000000000001</v>
       </c>
       <c r="H208">
-        <v>154.6856</v>
+        <v>154.68559999999999</v>
       </c>
       <c r="I208">
-        <v>3.6162</v>
-      </c>
-    </row>
-    <row r="209" spans="1:9">
+        <v>3.6162000000000001</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -6438,16 +6490,16 @@
         <v>2978.36</v>
       </c>
       <c r="C209">
-        <v>3.053337194775578</v>
+        <v>3.0533371947755779</v>
       </c>
       <c r="D209">
         <v>1.508</v>
       </c>
       <c r="E209">
-        <v>321.7163</v>
+        <v>321.71629999999999</v>
       </c>
       <c r="F209">
-        <v>2.8072</v>
+        <v>2.8071999999999999</v>
       </c>
       <c r="G209">
         <v>15.064</v>
@@ -6456,10 +6508,10 @@
         <v>175.6328</v>
       </c>
       <c r="I209">
-        <v>3.6756</v>
-      </c>
-    </row>
-    <row r="210" spans="1:9">
+        <v>3.6756000000000002</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -6473,22 +6525,22 @@
         <v>1.0864</v>
       </c>
       <c r="E210">
-        <v>145.4807</v>
+        <v>145.48070000000001</v>
       </c>
       <c r="F210">
-        <v>2.7718</v>
+        <v>2.7717999999999998</v>
       </c>
       <c r="G210">
         <v>35.76</v>
       </c>
       <c r="H210">
-        <v>153.9483</v>
+        <v>153.94829999999999</v>
       </c>
       <c r="I210">
-        <v>3.8982</v>
-      </c>
-    </row>
-    <row r="211" spans="1:9">
+        <v>3.8982000000000001</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -6496,28 +6548,28 @@
         <v>2985.17</v>
       </c>
       <c r="C211">
-        <v>6.968734196749353</v>
+        <v>6.9687341967493532</v>
       </c>
       <c r="D211">
-        <v>0.828</v>
+        <v>0.82799999999999996</v>
       </c>
       <c r="E211">
-        <v>35.9859</v>
+        <v>35.985900000000001</v>
       </c>
       <c r="F211">
-        <v>2.6602</v>
+        <v>2.6602000000000001</v>
       </c>
       <c r="G211">
-        <v>57.984</v>
+        <v>57.984000000000002</v>
       </c>
       <c r="H211">
-        <v>171.633</v>
+        <v>171.63300000000001</v>
       </c>
       <c r="I211">
         <v>2.8472</v>
       </c>
     </row>
-    <row r="212" spans="1:9">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -6525,16 +6577,16 @@
         <v>2985.23</v>
       </c>
       <c r="C212">
-        <v>5.604029438534189</v>
+        <v>5.6040294385341891</v>
       </c>
       <c r="D212">
-        <v>0.5865</v>
+        <v>0.58650000000000002</v>
       </c>
       <c r="E212">
-        <v>42.7975</v>
+        <v>42.797499999999999</v>
       </c>
       <c r="F212">
-        <v>2.6935</v>
+        <v>2.6934999999999998</v>
       </c>
       <c r="G212">
         <v>54.052</v>
@@ -6546,7 +6598,7 @@
         <v>2.9716</v>
       </c>
     </row>
-    <row r="213" spans="1:9">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -6554,16 +6606,16 @@
         <v>2985.3</v>
       </c>
       <c r="C213">
-        <v>4.495686343868641</v>
+        <v>4.4956863438686412</v>
       </c>
       <c r="D213">
-        <v>0.5865</v>
+        <v>0.58650000000000002</v>
       </c>
       <c r="E213">
-        <v>42.7975</v>
+        <v>42.797499999999999</v>
       </c>
       <c r="F213">
-        <v>2.6935</v>
+        <v>2.6934999999999998</v>
       </c>
       <c r="G213">
         <v>54.052</v>
@@ -6575,7 +6627,7 @@
         <v>2.9716</v>
       </c>
     </row>
-    <row r="214" spans="1:9">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -6583,19 +6635,19 @@
         <v>2985.76</v>
       </c>
       <c r="C214">
-        <v>4.98925921015049</v>
+        <v>4.9892592101504896</v>
       </c>
       <c r="D214">
         <v>1.492</v>
       </c>
       <c r="E214">
-        <v>58.7822</v>
+        <v>58.782200000000003</v>
       </c>
       <c r="F214">
         <v>2.7012</v>
       </c>
       <c r="G214">
-        <v>38.16</v>
+        <v>38.159999999999997</v>
       </c>
       <c r="H214">
         <v>169.3552</v>
@@ -6604,7 +6656,7 @@
         <v>2.948</v>
       </c>
     </row>
-    <row r="215" spans="1:9">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -6618,22 +6670,22 @@
         <v>1.2925</v>
       </c>
       <c r="E215">
-        <v>68.9126</v>
+        <v>68.912599999999998</v>
       </c>
       <c r="F215">
         <v>2.6669</v>
       </c>
       <c r="G215">
-        <v>35.996</v>
+        <v>35.996000000000002</v>
       </c>
       <c r="H215">
         <v>168.2345</v>
       </c>
       <c r="I215">
-        <v>2.8779</v>
-      </c>
-    </row>
-    <row r="216" spans="1:9">
+        <v>2.8778999999999999</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -6641,10 +6693,10 @@
         <v>2986.02</v>
       </c>
       <c r="C216">
-        <v>0.817654062559147</v>
+        <v>0.81765406255914697</v>
       </c>
       <c r="D216">
-        <v>0.9445</v>
+        <v>0.94450000000000001</v>
       </c>
       <c r="E216">
         <v>108.5244</v>
@@ -6653,16 +6705,16 @@
         <v>2.6313</v>
       </c>
       <c r="G216">
-        <v>31.944</v>
+        <v>31.943999999999999</v>
       </c>
       <c r="H216">
-        <v>167.9954</v>
+        <v>167.99539999999999</v>
       </c>
       <c r="I216">
-        <v>2.7764</v>
-      </c>
-    </row>
-    <row r="217" spans="1:9">
+        <v>2.7764000000000002</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -6673,25 +6725,25 @@
         <v>1.455295028479578</v>
       </c>
       <c r="D217">
-        <v>0.796</v>
+        <v>0.79600000000000004</v>
       </c>
       <c r="E217">
-        <v>138.0058</v>
+        <v>138.00579999999999</v>
       </c>
       <c r="F217">
-        <v>2.6968</v>
+        <v>2.6968000000000001</v>
       </c>
       <c r="G217">
-        <v>30.056</v>
+        <v>30.056000000000001</v>
       </c>
       <c r="H217">
-        <v>167.2644</v>
+        <v>167.26439999999999</v>
       </c>
       <c r="I217">
         <v>2.6854</v>
       </c>
     </row>
-    <row r="218" spans="1:9">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -6702,7 +6754,7 @@
         <v>10.95903183920424</v>
       </c>
       <c r="D218">
-        <v>1.055</v>
+        <v>1.0549999999999999</v>
       </c>
       <c r="E218">
         <v>212.072</v>
@@ -6711,16 +6763,16 @@
         <v>2.7782</v>
       </c>
       <c r="G218">
-        <v>27.464</v>
+        <v>27.463999999999999</v>
       </c>
       <c r="H218">
-        <v>165.0208</v>
+        <v>165.02080000000001</v>
       </c>
       <c r="I218">
-        <v>2.6034</v>
-      </c>
-    </row>
-    <row r="219" spans="1:9">
+        <v>2.6034000000000002</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -6728,28 +6780,28 @@
         <v>2986.45</v>
       </c>
       <c r="C219">
-        <v>6.031894747061051</v>
+        <v>6.0318947470610507</v>
       </c>
       <c r="D219">
-        <v>1.0336</v>
+        <v>1.0336000000000001</v>
       </c>
       <c r="E219">
-        <v>230.0486</v>
+        <v>230.04859999999999</v>
       </c>
       <c r="F219">
-        <v>2.7776</v>
+        <v>2.7776000000000001</v>
       </c>
       <c r="G219">
-        <v>26.496</v>
+        <v>26.495999999999999</v>
       </c>
       <c r="H219">
-        <v>162.5782</v>
+        <v>162.57820000000001</v>
       </c>
       <c r="I219">
-        <v>2.5551</v>
-      </c>
-    </row>
-    <row r="220" spans="1:9">
+        <v>2.5550999999999999</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>218</v>
       </c>
@@ -6757,28 +6809,28 @@
         <v>2988.31</v>
       </c>
       <c r="C220">
-        <v>0.6234812442465718</v>
+        <v>0.62348124424657181</v>
       </c>
       <c r="D220">
-        <v>0.7575</v>
+        <v>0.75749999999999995</v>
       </c>
       <c r="E220">
         <v>136.5325</v>
       </c>
       <c r="F220">
-        <v>2.8293</v>
+        <v>2.8292999999999999</v>
       </c>
       <c r="G220">
-        <v>32.332</v>
+        <v>32.332000000000001</v>
       </c>
       <c r="H220">
-        <v>161.3285</v>
+        <v>161.32849999999999</v>
       </c>
       <c r="I220">
         <v>2.8647</v>
       </c>
     </row>
-    <row r="221" spans="1:9">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>219</v>
       </c>
@@ -6786,28 +6838,28 @@
         <v>2988.44</v>
       </c>
       <c r="C221">
-        <v>0.8679672158589736</v>
+        <v>0.86796721585897363</v>
       </c>
       <c r="D221">
-        <v>0.7945</v>
+        <v>0.79449999999999998</v>
       </c>
       <c r="E221">
-        <v>103.7922</v>
+        <v>103.79219999999999</v>
       </c>
       <c r="F221">
         <v>2.8266</v>
       </c>
       <c r="G221">
-        <v>35.736</v>
+        <v>35.735999999999997</v>
       </c>
       <c r="H221">
-        <v>167.644</v>
+        <v>167.64400000000001</v>
       </c>
       <c r="I221">
         <v>3.012</v>
       </c>
     </row>
-    <row r="222" spans="1:9">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>220</v>
       </c>
@@ -6815,28 +6867,28 @@
         <v>2988.55</v>
       </c>
       <c r="C222">
-        <v>4.753385640823167</v>
+        <v>4.7533856408231667</v>
       </c>
       <c r="D222">
-        <v>0.861</v>
+        <v>0.86099999999999999</v>
       </c>
       <c r="E222">
-        <v>83.87520000000001</v>
+        <v>83.875200000000007</v>
       </c>
       <c r="F222">
-        <v>2.7626</v>
+        <v>2.7625999999999999</v>
       </c>
       <c r="G222">
-        <v>37.368</v>
+        <v>37.368000000000002</v>
       </c>
       <c r="H222">
-        <v>167.104</v>
+        <v>167.10400000000001</v>
       </c>
       <c r="I222">
-        <v>3.107</v>
-      </c>
-    </row>
-    <row r="223" spans="1:9">
+        <v>3.1070000000000002</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>221</v>
       </c>
@@ -6844,28 +6896,28 @@
         <v>2988.83</v>
       </c>
       <c r="C223">
-        <v>5.073941634988511</v>
+        <v>5.0739416349885111</v>
       </c>
       <c r="D223">
         <v>0.502</v>
       </c>
       <c r="E223">
-        <v>43.1255</v>
+        <v>43.125500000000002</v>
       </c>
       <c r="F223">
-        <v>2.7303</v>
+        <v>2.7303000000000002</v>
       </c>
       <c r="G223">
         <v>41.9</v>
       </c>
       <c r="H223">
-        <v>171.3332</v>
+        <v>171.33320000000001</v>
       </c>
       <c r="I223">
-        <v>2.9242</v>
-      </c>
-    </row>
-    <row r="224" spans="1:9">
+        <v>2.9241999999999999</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>222</v>
       </c>
@@ -6879,22 +6931,22 @@
         <v>0.502</v>
       </c>
       <c r="E224">
-        <v>43.1255</v>
+        <v>43.125500000000002</v>
       </c>
       <c r="F224">
-        <v>2.7303</v>
+        <v>2.7303000000000002</v>
       </c>
       <c r="G224">
         <v>41.9</v>
       </c>
       <c r="H224">
-        <v>171.3332</v>
+        <v>171.33320000000001</v>
       </c>
       <c r="I224">
-        <v>2.9242</v>
-      </c>
-    </row>
-    <row r="225" spans="1:9">
+        <v>2.9241999999999999</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>223</v>
       </c>
@@ -6902,28 +6954,28 @@
         <v>2989.32</v>
       </c>
       <c r="C225">
-        <v>0.3444014732583741</v>
+        <v>0.34440147325837411</v>
       </c>
       <c r="D225">
-        <v>0.416</v>
+        <v>0.41599999999999998</v>
       </c>
       <c r="E225">
         <v>25.4512</v>
       </c>
       <c r="F225">
-        <v>2.6916</v>
+        <v>2.6916000000000002</v>
       </c>
       <c r="G225">
-        <v>46.776</v>
+        <v>46.776000000000003</v>
       </c>
       <c r="H225">
         <v>180.5386</v>
       </c>
       <c r="I225">
-        <v>2.779</v>
-      </c>
-    </row>
-    <row r="226" spans="1:9">
+        <v>2.7789999999999999</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -6931,28 +6983,28 @@
         <v>2989.76</v>
       </c>
       <c r="C226">
-        <v>1.541473378849341</v>
+        <v>1.5414733788493411</v>
       </c>
       <c r="D226">
-        <v>0.326</v>
+        <v>0.32600000000000001</v>
       </c>
       <c r="E226">
-        <v>29.3374</v>
+        <v>29.337399999999999</v>
       </c>
       <c r="F226">
-        <v>2.6782</v>
+        <v>2.6781999999999999</v>
       </c>
       <c r="G226">
-        <v>44.496</v>
+        <v>44.496000000000002</v>
       </c>
       <c r="H226">
-        <v>170.4722</v>
+        <v>170.47219999999999</v>
       </c>
       <c r="I226">
-        <v>2.8444</v>
-      </c>
-    </row>
-    <row r="227" spans="1:9">
+        <v>2.8443999999999998</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>225</v>
       </c>
@@ -6960,28 +7012,28 @@
         <v>2989.86</v>
       </c>
       <c r="C227">
-        <v>0.6436473103737764</v>
+        <v>0.64364731037377643</v>
       </c>
       <c r="D227">
-        <v>0.4015</v>
+        <v>0.40150000000000002</v>
       </c>
       <c r="E227">
-        <v>30.9708</v>
+        <v>30.970800000000001</v>
       </c>
       <c r="F227">
         <v>2.6772</v>
       </c>
       <c r="G227">
-        <v>43.864</v>
+        <v>43.863999999999997</v>
       </c>
       <c r="H227">
-        <v>169.5045</v>
+        <v>169.50450000000001</v>
       </c>
       <c r="I227">
         <v>2.9093</v>
       </c>
     </row>
-    <row r="228" spans="1:9">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>226</v>
       </c>
@@ -6989,28 +7041,28 @@
         <v>2990.29</v>
       </c>
       <c r="C228">
-        <v>3.011130555259203</v>
+        <v>3.0111305552592031</v>
       </c>
       <c r="D228">
-        <v>0.3804</v>
+        <v>0.38040000000000002</v>
       </c>
       <c r="E228">
-        <v>37.3781</v>
+        <v>37.378100000000003</v>
       </c>
       <c r="F228">
-        <v>2.6905</v>
+        <v>2.6905000000000001</v>
       </c>
       <c r="G228">
-        <v>41.284</v>
+        <v>41.283999999999999</v>
       </c>
       <c r="H228">
         <v>172.2731</v>
       </c>
       <c r="I228">
-        <v>3.039</v>
-      </c>
-    </row>
-    <row r="229" spans="1:9">
+        <v>3.0390000000000001</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>227</v>
       </c>
@@ -7021,25 +7073,25 @@
         <v>3.202343054241918</v>
       </c>
       <c r="D229">
-        <v>0.5174</v>
+        <v>0.51739999999999997</v>
       </c>
       <c r="E229">
-        <v>38.3883</v>
+        <v>38.388300000000001</v>
       </c>
       <c r="F229">
-        <v>2.7642</v>
+        <v>2.7642000000000002</v>
       </c>
       <c r="G229">
-        <v>39.104</v>
+        <v>39.103999999999999</v>
       </c>
       <c r="H229">
         <v>178.2062</v>
       </c>
       <c r="I229">
-        <v>3.1164</v>
-      </c>
-    </row>
-    <row r="230" spans="1:9">
+        <v>3.1164000000000001</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>228</v>
       </c>
@@ -7047,28 +7099,28 @@
         <v>2990.84</v>
       </c>
       <c r="C230">
-        <v>0.6771183655767781</v>
+        <v>0.67711836557677807</v>
       </c>
       <c r="D230">
-        <v>0.5943000000000001</v>
+        <v>0.59430000000000005</v>
       </c>
       <c r="E230">
         <v>41.5837</v>
       </c>
       <c r="F230">
-        <v>2.6728</v>
+        <v>2.6728000000000001</v>
       </c>
       <c r="G230">
-        <v>35.904</v>
+        <v>35.904000000000003</v>
       </c>
       <c r="H230">
         <v>176.5301</v>
       </c>
       <c r="I230">
-        <v>3.2648</v>
-      </c>
-    </row>
-    <row r="231" spans="1:9">
+        <v>3.2648000000000001</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>229</v>
       </c>
@@ -7079,25 +7131,25 @@
         <v>2.78509349867773</v>
       </c>
       <c r="D231">
-        <v>0.8363</v>
+        <v>0.83630000000000004</v>
       </c>
       <c r="E231">
-        <v>67.00709999999989</v>
+        <v>67.007099999999895</v>
       </c>
       <c r="F231">
-        <v>2.7511</v>
+        <v>2.7511000000000001</v>
       </c>
       <c r="G231">
-        <v>26.576</v>
+        <v>26.576000000000001</v>
       </c>
       <c r="H231">
-        <v>167.3694</v>
+        <v>167.36940000000001</v>
       </c>
       <c r="I231">
-        <v>3.4281</v>
-      </c>
-    </row>
-    <row r="232" spans="1:9">
+        <v>3.4281000000000001</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>230</v>
       </c>
@@ -7105,28 +7157,28 @@
         <v>2994.96</v>
       </c>
       <c r="C232">
-        <v>4.044336073024711</v>
+        <v>4.0443360730247111</v>
       </c>
       <c r="D232">
         <v>0.621</v>
       </c>
       <c r="E232">
-        <v>394.248</v>
+        <v>394.24799999999999</v>
       </c>
       <c r="F232">
-        <v>2.8272</v>
+        <v>2.8271999999999999</v>
       </c>
       <c r="G232">
         <v>23.68</v>
       </c>
       <c r="H232">
-        <v>172.5108</v>
+        <v>172.51079999999999</v>
       </c>
       <c r="I232">
-        <v>3.9804</v>
-      </c>
-    </row>
-    <row r="233" spans="1:9">
+        <v>3.9803999999999999</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>231</v>
       </c>
@@ -7134,7 +7186,7 @@
         <v>2998.55</v>
       </c>
       <c r="C233">
-        <v>0.5519908606943834</v>
+        <v>0.55199086069438341</v>
       </c>
       <c r="D233">
         <v>0.7601</v>
@@ -7143,19 +7195,19 @@
         <v>255.684</v>
       </c>
       <c r="F233">
-        <v>2.636</v>
+        <v>2.6360000000000001</v>
       </c>
       <c r="G233">
         <v>16</v>
       </c>
       <c r="H233">
-        <v>161.943</v>
+        <v>161.94300000000001</v>
       </c>
       <c r="I233">
-        <v>3.7974</v>
-      </c>
-    </row>
-    <row r="234" spans="1:9">
+        <v>3.7974000000000001</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>232</v>
       </c>
@@ -7166,25 +7218,25 @@
         <v>1.164031857891624</v>
       </c>
       <c r="D234">
-        <v>0.7168</v>
+        <v>0.71679999999999999</v>
       </c>
       <c r="E234">
         <v>107.6772</v>
       </c>
       <c r="F234">
-        <v>2.6968</v>
+        <v>2.6968000000000001</v>
       </c>
       <c r="G234">
-        <v>15.832</v>
+        <v>15.832000000000001</v>
       </c>
       <c r="H234">
-        <v>157.4242</v>
+        <v>157.42420000000001</v>
       </c>
       <c r="I234">
-        <v>3.2528</v>
-      </c>
-    </row>
-    <row r="235" spans="1:9">
+        <v>3.2528000000000001</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>233</v>
       </c>
@@ -7192,25 +7244,25 @@
         <v>2999.93</v>
       </c>
       <c r="C235">
-        <v>0.4986152264254707</v>
+        <v>0.49861522642547068</v>
       </c>
       <c r="D235">
-        <v>0.776</v>
+        <v>0.77600000000000002</v>
       </c>
       <c r="E235">
         <v>114.7409</v>
       </c>
       <c r="F235">
-        <v>2.771</v>
+        <v>2.7709999999999999</v>
       </c>
       <c r="G235">
         <v>17.8</v>
       </c>
       <c r="H235">
-        <v>175.383</v>
+        <v>175.38300000000001</v>
       </c>
       <c r="I235">
-        <v>3.152</v>
+        <v>3.1520000000000001</v>
       </c>
     </row>
   </sheetData>
